--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -7052,28 +7052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13638.05605788924</v>
+        <v>13887.74774574402</v>
       </c>
       <c r="AB2" t="n">
-        <v>18660.18996697476</v>
+        <v>19001.82914991751</v>
       </c>
       <c r="AC2" t="n">
-        <v>16879.28762626709</v>
+        <v>17188.32124508338</v>
       </c>
       <c r="AD2" t="n">
-        <v>13638056.05788924</v>
+        <v>13887747.74574402</v>
       </c>
       <c r="AE2" t="n">
-        <v>18660189.96697476</v>
+        <v>19001829.14991751</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.364862070961381e-07</v>
+        <v>7.379015898834427e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>16879287.62626709</v>
+        <v>17188321.24508338</v>
       </c>
     </row>
     <row r="3">
@@ -7158,28 +7158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4525.868044274494</v>
+        <v>4661.000405878882</v>
       </c>
       <c r="AB3" t="n">
-        <v>6192.492325383027</v>
+        <v>6377.386384149203</v>
       </c>
       <c r="AC3" t="n">
-        <v>5601.489549065801</v>
+        <v>5768.737578363768</v>
       </c>
       <c r="AD3" t="n">
-        <v>4525868.044274493</v>
+        <v>4661000.405878882</v>
       </c>
       <c r="AE3" t="n">
-        <v>6192492.325383026</v>
+        <v>6377386.384149203</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.27018819528077e-07</v>
+        <v>1.398116347944263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>5601489.549065801</v>
+        <v>5768737.578363768</v>
       </c>
     </row>
     <row r="4">
@@ -7264,28 +7264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3472.819777066273</v>
+        <v>3587.29376246209</v>
       </c>
       <c r="AB4" t="n">
-        <v>4751.66522897789</v>
+        <v>4908.293586032265</v>
       </c>
       <c r="AC4" t="n">
-        <v>4298.172968528096</v>
+        <v>4439.852935014475</v>
       </c>
       <c r="AD4" t="n">
-        <v>3472819.777066273</v>
+        <v>3587293.76246209</v>
       </c>
       <c r="AE4" t="n">
-        <v>4751665.228977891</v>
+        <v>4908293.586032265</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.720279404684385e-07</v>
+        <v>1.643261461695648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.84444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>4298172.968528097</v>
+        <v>4439852.935014475</v>
       </c>
     </row>
     <row r="5">
@@ -7370,28 +7370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3072.853698216276</v>
+        <v>3176.827948061491</v>
       </c>
       <c r="AB5" t="n">
-        <v>4204.413994637234</v>
+        <v>4346.676150295635</v>
       </c>
       <c r="AC5" t="n">
-        <v>3803.150623921001</v>
+        <v>3931.835479109548</v>
       </c>
       <c r="AD5" t="n">
-        <v>3072853.698216276</v>
+        <v>3176827.948061491</v>
       </c>
       <c r="AE5" t="n">
-        <v>4204413.994637234</v>
+        <v>4346676.150295635</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.049054918191286e-06</v>
+        <v>1.773479389322137e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.31388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>3803150.623921001</v>
+        <v>3931835.479109548</v>
       </c>
     </row>
     <row r="6">
@@ -7476,28 +7476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2854.249444826174</v>
+        <v>2947.894551321381</v>
       </c>
       <c r="AB6" t="n">
-        <v>3905.31001100987</v>
+        <v>4033.439377047143</v>
       </c>
       <c r="AC6" t="n">
-        <v>3532.592704695966</v>
+        <v>3648.493583869332</v>
       </c>
       <c r="AD6" t="n">
-        <v>2854249.444826174</v>
+        <v>2947894.551321381</v>
       </c>
       <c r="AE6" t="n">
-        <v>3905310.01100987</v>
+        <v>4033439.377047143</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.09675912598555e-06</v>
+        <v>1.854125719499907e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.475</v>
       </c>
       <c r="AH6" t="n">
-        <v>3532592.704695967</v>
+        <v>3648493.583869332</v>
       </c>
     </row>
     <row r="7">
@@ -7582,28 +7582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2708.168197971615</v>
+        <v>2812.142358308279</v>
       </c>
       <c r="AB7" t="n">
-        <v>3705.435204413679</v>
+        <v>3847.697237602532</v>
       </c>
       <c r="AC7" t="n">
-        <v>3351.793669115271</v>
+        <v>3480.478413522591</v>
       </c>
       <c r="AD7" t="n">
-        <v>2708168.197971615</v>
+        <v>2812142.358308279</v>
       </c>
       <c r="AE7" t="n">
-        <v>3705435.204413679</v>
+        <v>3847697.237602532</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.130166659884285e-06</v>
+        <v>1.910602813110638e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.92777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>3351793.669115271</v>
+        <v>3480478.413522591</v>
       </c>
     </row>
     <row r="8">
@@ -7688,28 +7688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2615.554832720626</v>
+        <v>2709.285190561855</v>
       </c>
       <c r="AB8" t="n">
-        <v>3578.717512263958</v>
+        <v>3706.963522953881</v>
       </c>
       <c r="AC8" t="n">
-        <v>3237.169735654925</v>
+        <v>3353.176127079003</v>
       </c>
       <c r="AD8" t="n">
-        <v>2615554.832720626</v>
+        <v>2709285.190561854</v>
       </c>
       <c r="AE8" t="n">
-        <v>3578717.512263958</v>
+        <v>3706963.522953881</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.153945821567665e-06</v>
+        <v>1.950802665768059e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.55833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3237169.735654925</v>
+        <v>3353176.127079003</v>
       </c>
     </row>
     <row r="9">
@@ -7794,28 +7794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2545.357241527156</v>
+        <v>2638.91700716779</v>
       </c>
       <c r="AB9" t="n">
-        <v>3482.67007109389</v>
+        <v>3610.682670008966</v>
       </c>
       <c r="AC9" t="n">
-        <v>3150.288927466702</v>
+        <v>3266.084183608129</v>
       </c>
       <c r="AD9" t="n">
-        <v>2545357.241527156</v>
+        <v>2638917.007167791</v>
       </c>
       <c r="AE9" t="n">
-        <v>3482670.07109389</v>
+        <v>3610682.670008966</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.172035490578333e-06</v>
+        <v>1.981384148771249e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.2875</v>
       </c>
       <c r="AH9" t="n">
-        <v>3150288.927466702</v>
+        <v>3266084.183608129</v>
       </c>
     </row>
     <row r="10">
@@ -7900,28 +7900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2486.732432552624</v>
+        <v>2570.048395697822</v>
       </c>
       <c r="AB10" t="n">
-        <v>3402.457021110894</v>
+        <v>3516.453597527042</v>
       </c>
       <c r="AC10" t="n">
-        <v>3077.731298394365</v>
+        <v>3180.848201552549</v>
       </c>
       <c r="AD10" t="n">
-        <v>2486732.432552624</v>
+        <v>2570048.395697822</v>
       </c>
       <c r="AE10" t="n">
-        <v>3402457.021110895</v>
+        <v>3516453.597527042</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.187207471038894e-06</v>
+        <v>2.007033134515861e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.06666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3077731.298394365</v>
+        <v>3180848.201552549</v>
       </c>
     </row>
     <row r="11">
@@ -8006,28 +8006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2434.621913829396</v>
+        <v>2528.266930816052</v>
       </c>
       <c r="AB11" t="n">
-        <v>3331.157110439937</v>
+        <v>3459.286354007662</v>
       </c>
       <c r="AC11" t="n">
-        <v>3013.236151127791</v>
+        <v>3129.136919519931</v>
       </c>
       <c r="AD11" t="n">
-        <v>2434621.913829396</v>
+        <v>2528266.930816052</v>
       </c>
       <c r="AE11" t="n">
-        <v>3331157.110439937</v>
+        <v>3459286.354007662</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.197711149819283e-06</v>
+        <v>2.024790124646746e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.91805555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>3013236.151127791</v>
+        <v>3129136.919519931</v>
       </c>
     </row>
     <row r="12">
@@ -8112,28 +8112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2393.983648865258</v>
+        <v>2487.628665851914</v>
       </c>
       <c r="AB12" t="n">
-        <v>3275.554043482281</v>
+        <v>3403.683287050006</v>
       </c>
       <c r="AC12" t="n">
-        <v>2962.939762841182</v>
+        <v>3078.840531233322</v>
       </c>
       <c r="AD12" t="n">
-        <v>2393983.648865258</v>
+        <v>2487628.665851914</v>
       </c>
       <c r="AE12" t="n">
-        <v>3275554.043482281</v>
+        <v>3403683.287050006</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.207631290889649e-06</v>
+        <v>2.041560615325915e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.77916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2962939.762841182</v>
+        <v>3078840.531233321</v>
       </c>
     </row>
     <row r="13">
@@ -8218,28 +8218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2361.129874121879</v>
+        <v>2454.774891108535</v>
       </c>
       <c r="AB13" t="n">
-        <v>3230.60205947214</v>
+        <v>3358.731303039865</v>
       </c>
       <c r="AC13" t="n">
-        <v>2922.277933094465</v>
+        <v>3038.178701486604</v>
       </c>
       <c r="AD13" t="n">
-        <v>2361129.874121879</v>
+        <v>2454774.891108535</v>
       </c>
       <c r="AE13" t="n">
-        <v>3230602.05947214</v>
+        <v>3358731.303039865</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.215363165547435e-06</v>
+        <v>2.05463173306115e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.67222222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>2922277.933094465</v>
+        <v>3038178.701486604</v>
       </c>
     </row>
     <row r="14">
@@ -8324,28 +8324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2329.730791252634</v>
+        <v>2423.37580823929</v>
       </c>
       <c r="AB14" t="n">
-        <v>3187.640449060665</v>
+        <v>3315.76969262839</v>
       </c>
       <c r="AC14" t="n">
-        <v>2883.416518483663</v>
+        <v>2999.317286875803</v>
       </c>
       <c r="AD14" t="n">
-        <v>2329730.791252634</v>
+        <v>2423375.80823929</v>
       </c>
       <c r="AE14" t="n">
-        <v>3187640.449060665</v>
+        <v>3315769.69262839</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.222657386922705e-06</v>
+        <v>2.066962976207598e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.57222222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>2883416.518483663</v>
+        <v>2999317.286875803</v>
       </c>
     </row>
     <row r="15">
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2305.38467745423</v>
+        <v>2399.029694440886</v>
       </c>
       <c r="AB15" t="n">
-        <v>3154.32902208695</v>
+        <v>3282.458265654676</v>
       </c>
       <c r="AC15" t="n">
-        <v>2853.28428734744</v>
+        <v>2969.18505573958</v>
       </c>
       <c r="AD15" t="n">
-        <v>2305384.67745423</v>
+        <v>2399029.694440886</v>
       </c>
       <c r="AE15" t="n">
-        <v>3154329.02208695</v>
+        <v>3282458.265654676</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.227471573030383e-06</v>
+        <v>2.075101596684253e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.50833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2853284.28734744</v>
+        <v>2969185.05573958</v>
       </c>
     </row>
     <row r="16">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2280.687991774388</v>
+        <v>2363.918614065014</v>
       </c>
       <c r="AB16" t="n">
-        <v>3120.537927198912</v>
+        <v>3234.417736492861</v>
       </c>
       <c r="AC16" t="n">
-        <v>2822.718167129417</v>
+        <v>2925.729447255664</v>
       </c>
       <c r="AD16" t="n">
-        <v>2280687.991774388</v>
+        <v>2363918.614065014</v>
       </c>
       <c r="AE16" t="n">
-        <v>3120537.927198912</v>
+        <v>3234417.736492861</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.232869296848083e-06</v>
+        <v>2.084226716612625e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.43472222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>2822718.167129417</v>
+        <v>2925729.447255664</v>
       </c>
     </row>
     <row r="17">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2256.976942305844</v>
+        <v>2340.20756459647</v>
       </c>
       <c r="AB17" t="n">
-        <v>3088.095423258372</v>
+        <v>3201.975232552322</v>
       </c>
       <c r="AC17" t="n">
-        <v>2793.371930231624</v>
+        <v>2896.38321035787</v>
       </c>
       <c r="AD17" t="n">
-        <v>2256976.942305844</v>
+        <v>2340207.56459647</v>
       </c>
       <c r="AE17" t="n">
-        <v>3088095.423258372</v>
+        <v>3201975.232552322</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.23739171410075e-06</v>
+        <v>2.091872087363422e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.37361111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>2793371.930231624</v>
+        <v>2896383.21035787</v>
       </c>
     </row>
     <row r="18">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2234.678019419567</v>
+        <v>2317.908641710193</v>
       </c>
       <c r="AB18" t="n">
-        <v>3057.585053206319</v>
+        <v>3171.464862500267</v>
       </c>
       <c r="AC18" t="n">
-        <v>2765.773427075766</v>
+        <v>2868.784707202013</v>
       </c>
       <c r="AD18" t="n">
-        <v>2234678.019419567</v>
+        <v>2317908.641710193</v>
       </c>
       <c r="AE18" t="n">
-        <v>3057585.053206319</v>
+        <v>3171464.862500267</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.241622362498406e-06</v>
+        <v>2.099024208388362e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.31805555555555</v>
       </c>
       <c r="AH18" t="n">
-        <v>2765773.427075766</v>
+        <v>2868784.707202013</v>
       </c>
     </row>
     <row r="19">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2212.87403655652</v>
+        <v>2296.104658847146</v>
       </c>
       <c r="AB19" t="n">
-        <v>3027.751881929261</v>
+        <v>3141.63169122321</v>
       </c>
       <c r="AC19" t="n">
-        <v>2738.787491794274</v>
+        <v>2841.79877192052</v>
       </c>
       <c r="AD19" t="n">
-        <v>2212874.03655652</v>
+        <v>2296104.658847146</v>
       </c>
       <c r="AE19" t="n">
-        <v>3027751.881929261</v>
+        <v>3141631.69122321</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.245561242041052e-06</v>
+        <v>2.105683079687444e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.26805555555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>2738787.491794274</v>
+        <v>2841798.77192052</v>
       </c>
     </row>
     <row r="20">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2197.008343901129</v>
+        <v>2280.238966191755</v>
       </c>
       <c r="AB20" t="n">
-        <v>3006.043741293193</v>
+        <v>3119.923550587142</v>
       </c>
       <c r="AC20" t="n">
-        <v>2719.151145632946</v>
+        <v>2822.162425759193</v>
       </c>
       <c r="AD20" t="n">
-        <v>2197008.343901129</v>
+        <v>2280238.966191755</v>
       </c>
       <c r="AE20" t="n">
-        <v>3006043.741293193</v>
+        <v>3119923.550587142</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.248041277308644e-06</v>
+        <v>2.109875702357236e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.23611111111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>2719151.145632946</v>
+        <v>2822162.425759193</v>
       </c>
     </row>
     <row r="21">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2177.286075794465</v>
+        <v>2260.516698085094</v>
       </c>
       <c r="AB21" t="n">
-        <v>2979.058863984422</v>
+        <v>3092.938673278545</v>
       </c>
       <c r="AC21" t="n">
-        <v>2694.741667141125</v>
+        <v>2797.752947267416</v>
       </c>
       <c r="AD21" t="n">
-        <v>2177286.075794465</v>
+        <v>2260516.698085093</v>
       </c>
       <c r="AE21" t="n">
-        <v>2979058.863984422</v>
+        <v>3092938.673278545</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.250813081431246e-06</v>
+        <v>2.114561574752887e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.2</v>
       </c>
       <c r="AH21" t="n">
-        <v>2694741.667141125</v>
+        <v>2797752.947267416</v>
       </c>
     </row>
     <row r="22">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2158.879961650372</v>
+        <v>2242.110583941002</v>
       </c>
       <c r="AB22" t="n">
-        <v>2953.874806592029</v>
+        <v>3067.75461588615</v>
       </c>
       <c r="AC22" t="n">
-        <v>2671.961140840214</v>
+        <v>2774.972420966506</v>
       </c>
       <c r="AD22" t="n">
-        <v>2158879.961650372</v>
+        <v>2242110.583941001</v>
       </c>
       <c r="AE22" t="n">
-        <v>2953874.806592029</v>
+        <v>3067754.61588615</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.253730769981354e-06</v>
+        <v>2.119494072011466e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.16111111111111</v>
       </c>
       <c r="AH22" t="n">
-        <v>2671961.140840214</v>
+        <v>2774972.420966506</v>
       </c>
     </row>
     <row r="23">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2140.534295052822</v>
+        <v>2223.764917343452</v>
       </c>
       <c r="AB23" t="n">
-        <v>2928.773456199573</v>
+        <v>3042.653265493693</v>
       </c>
       <c r="AC23" t="n">
-        <v>2649.255428099247</v>
+        <v>2752.266708225539</v>
       </c>
       <c r="AD23" t="n">
-        <v>2140534.295052823</v>
+        <v>2223764.917343452</v>
       </c>
       <c r="AE23" t="n">
-        <v>2928773.456199573</v>
+        <v>3042653.265493693</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.256210805248946e-06</v>
+        <v>2.123686694681258e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.13055555555556</v>
       </c>
       <c r="AH23" t="n">
-        <v>2649255.428099247</v>
+        <v>2752266.708225539</v>
       </c>
     </row>
     <row r="24">
@@ -9384,28 +9384,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2125.75312828193</v>
+        <v>2208.983750572559</v>
       </c>
       <c r="AB24" t="n">
-        <v>2908.549211724582</v>
+        <v>3022.429021018701</v>
       </c>
       <c r="AC24" t="n">
-        <v>2630.961357132044</v>
+        <v>2733.972637258336</v>
       </c>
       <c r="AD24" t="n">
-        <v>2125753.12828193</v>
+        <v>2208983.750572559</v>
       </c>
       <c r="AE24" t="n">
-        <v>2908549.211724582</v>
+        <v>3022429.021018702</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.258253187234021e-06</v>
+        <v>2.127139442762264e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.10277777777778</v>
       </c>
       <c r="AH24" t="n">
-        <v>2630961.357132044</v>
+        <v>2733972.637258336</v>
       </c>
     </row>
     <row r="25">
@@ -9490,28 +9490,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2108.788183064583</v>
+        <v>2192.018805355212</v>
       </c>
       <c r="AB25" t="n">
-        <v>2885.337025237647</v>
+        <v>2999.216834531765</v>
       </c>
       <c r="AC25" t="n">
-        <v>2609.964509144915</v>
+        <v>2712.975789271205</v>
       </c>
       <c r="AD25" t="n">
-        <v>2108788.183064583</v>
+        <v>2192018.805355212</v>
       </c>
       <c r="AE25" t="n">
-        <v>2885337.025237647</v>
+        <v>2999216.834531765</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.259712031509075e-06</v>
+        <v>2.129605691391553e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.08333333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>2609964.509144915</v>
+        <v>2712975.789271205</v>
       </c>
     </row>
     <row r="26">
@@ -9596,28 +9596,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2092.831208858217</v>
+        <v>2176.061831148842</v>
       </c>
       <c r="AB26" t="n">
-        <v>2863.503989156478</v>
+        <v>2977.38379845042</v>
       </c>
       <c r="AC26" t="n">
-        <v>2590.215187384473</v>
+        <v>2693.226467510718</v>
       </c>
       <c r="AD26" t="n">
-        <v>2092831.208858216</v>
+        <v>2176061.831148842</v>
       </c>
       <c r="AE26" t="n">
-        <v>2863503.989156478</v>
+        <v>2977383.79845042</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.261900297921656e-06</v>
+        <v>2.133305064335487e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.05694444444444</v>
       </c>
       <c r="AH26" t="n">
-        <v>2590215.187384473</v>
+        <v>2693226.467510718</v>
       </c>
     </row>
     <row r="27">
@@ -9702,28 +9702,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2078.589576021076</v>
+        <v>2161.820198311703</v>
       </c>
       <c r="AB27" t="n">
-        <v>2844.017958812205</v>
+        <v>2957.897768106148</v>
       </c>
       <c r="AC27" t="n">
-        <v>2572.588876427443</v>
+        <v>2675.600156553688</v>
       </c>
       <c r="AD27" t="n">
-        <v>2078589.576021076</v>
+        <v>2161820.198311703</v>
       </c>
       <c r="AE27" t="n">
-        <v>2844017.958812205</v>
+        <v>2957897.768106148</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.263505026624215e-06</v>
+        <v>2.136017937827706e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.03611111111111</v>
       </c>
       <c r="AH27" t="n">
-        <v>2572588.876427443</v>
+        <v>2675600.156553688</v>
       </c>
     </row>
     <row r="28">
@@ -9808,28 +9808,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2072.550878966241</v>
+        <v>2155.781501256867</v>
       </c>
       <c r="AB28" t="n">
-        <v>2835.755547093268</v>
+        <v>2949.63535638721</v>
       </c>
       <c r="AC28" t="n">
-        <v>2565.115017686593</v>
+        <v>2668.126297812837</v>
       </c>
       <c r="AD28" t="n">
-        <v>2072550.878966241</v>
+        <v>2155781.501256867</v>
       </c>
       <c r="AE28" t="n">
-        <v>2835755.547093268</v>
+        <v>2949635.35638721</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.264234448761742e-06</v>
+        <v>2.137251062142351e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>16.02777777777778</v>
       </c>
       <c r="AH28" t="n">
-        <v>2565115.017686593</v>
+        <v>2668126.297812837</v>
       </c>
     </row>
     <row r="29">
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>2079.37119115507</v>
+        <v>2162.601813445696</v>
       </c>
       <c r="AB29" t="n">
-        <v>2845.087399120961</v>
+        <v>2958.967208414904</v>
       </c>
       <c r="AC29" t="n">
-        <v>2573.556250854101</v>
+        <v>2676.567530980345</v>
       </c>
       <c r="AD29" t="n">
-        <v>2079371.19115507</v>
+        <v>2162601.813445696</v>
       </c>
       <c r="AE29" t="n">
-        <v>2845087.399120961</v>
+        <v>2958967.208414904</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.264088564334237e-06</v>
+        <v>2.137004437279422e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>16.02916666666667</v>
       </c>
       <c r="AH29" t="n">
-        <v>2573556.250854101</v>
+        <v>2676567.530980345</v>
       </c>
     </row>
     <row r="30">
@@ -10020,28 +10020,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>2087.91252254695</v>
+        <v>2171.143144837576</v>
       </c>
       <c r="AB30" t="n">
-        <v>2856.774025548278</v>
+        <v>2970.653834842219</v>
       </c>
       <c r="AC30" t="n">
-        <v>2584.127522057477</v>
+        <v>2687.13880218372</v>
       </c>
       <c r="AD30" t="n">
-        <v>2087912.52254695</v>
+        <v>2171143.144837575</v>
       </c>
       <c r="AE30" t="n">
-        <v>2856774.025548278</v>
+        <v>2970653.834842219</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.264088564334237e-06</v>
+        <v>2.137004437279422e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16.02916666666667</v>
       </c>
       <c r="AH30" t="n">
-        <v>2584127.522057476</v>
+        <v>2687138.80218372</v>
       </c>
     </row>
   </sheetData>
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8218.900047596733</v>
+        <v>8410.535495775504</v>
       </c>
       <c r="AB2" t="n">
-        <v>11245.46163740212</v>
+        <v>11507.66571195962</v>
       </c>
       <c r="AC2" t="n">
-        <v>10172.21056183257</v>
+        <v>10409.39024752002</v>
       </c>
       <c r="AD2" t="n">
-        <v>8218900.047596733</v>
+        <v>8410535.495775504</v>
       </c>
       <c r="AE2" t="n">
-        <v>11245461.63740212</v>
+        <v>11507665.71195962</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.739312631986231e-07</v>
+        <v>9.939290005207886e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.52083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>10172210.56183257</v>
+        <v>10409390.24752002</v>
       </c>
     </row>
     <row r="3">
@@ -10423,28 +10423,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3554.394147149537</v>
+        <v>3665.305142085979</v>
       </c>
       <c r="AB3" t="n">
-        <v>4863.278880933038</v>
+        <v>5015.032197252848</v>
       </c>
       <c r="AC3" t="n">
-        <v>4399.134370191383</v>
+        <v>4536.404562988742</v>
       </c>
       <c r="AD3" t="n">
-        <v>3554394.147149537</v>
+        <v>3665305.142085979</v>
       </c>
       <c r="AE3" t="n">
-        <v>4863278.880933038</v>
+        <v>5015032.197252848</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.343172365139825e-07</v>
+        <v>1.61804218833137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.43611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>4399134.370191383</v>
+        <v>4536404.562988742</v>
       </c>
     </row>
     <row r="4">
@@ -10529,28 +10529,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2855.084024259135</v>
+        <v>2955.989702697737</v>
       </c>
       <c r="AB4" t="n">
-        <v>3906.451919409094</v>
+        <v>4044.515520293148</v>
       </c>
       <c r="AC4" t="n">
-        <v>3533.625630960246</v>
+        <v>3658.512635549402</v>
       </c>
       <c r="AD4" t="n">
-        <v>2855084.024259135</v>
+        <v>2955989.702697737</v>
       </c>
       <c r="AE4" t="n">
-        <v>3906451.919409094</v>
+        <v>4044515.520293148</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064859056831313e-06</v>
+        <v>1.844113338857398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.68472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>3533625.630960247</v>
+        <v>3658512.635549402</v>
       </c>
     </row>
     <row r="5">
@@ -10635,28 +10635,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2569.845745555317</v>
+        <v>2670.495490938755</v>
       </c>
       <c r="AB5" t="n">
-        <v>3516.176322661773</v>
+        <v>3653.889744648782</v>
       </c>
       <c r="AC5" t="n">
-        <v>3180.597389411264</v>
+        <v>3305.167635685829</v>
       </c>
       <c r="AD5" t="n">
-        <v>2569845.745555317</v>
+        <v>2670495.490938755</v>
       </c>
       <c r="AE5" t="n">
-        <v>3516176.322661773</v>
+        <v>3653889.744648782</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.133374648073011e-06</v>
+        <v>1.962768023642157e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.49444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>3180597.389411264</v>
+        <v>3305167.635685829</v>
       </c>
     </row>
     <row r="6">
@@ -10741,28 +10741,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2404.583714067484</v>
+        <v>2505.318710796943</v>
       </c>
       <c r="AB6" t="n">
-        <v>3290.05752033384</v>
+        <v>3427.887586973497</v>
       </c>
       <c r="AC6" t="n">
-        <v>2976.059048217785</v>
+        <v>3100.734806743063</v>
       </c>
       <c r="AD6" t="n">
-        <v>2404583.714067484</v>
+        <v>2505318.710796943</v>
       </c>
       <c r="AE6" t="n">
-        <v>3290057.52033384</v>
+        <v>3427887.586973498</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.175932790650453e-06</v>
+        <v>2.036469832252954e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.825</v>
       </c>
       <c r="AH6" t="n">
-        <v>2976059.048217785</v>
+        <v>3100734.806743063</v>
       </c>
     </row>
     <row r="7">
@@ -10847,28 +10847,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2306.623549538015</v>
+        <v>2397.268067932165</v>
       </c>
       <c r="AB7" t="n">
-        <v>3156.024101527164</v>
+        <v>3280.047930547966</v>
       </c>
       <c r="AC7" t="n">
-        <v>2854.81759078494</v>
+        <v>2967.004759632528</v>
       </c>
       <c r="AD7" t="n">
-        <v>2306623.549538015</v>
+        <v>2397268.067932165</v>
       </c>
       <c r="AE7" t="n">
-        <v>3156024.101527164</v>
+        <v>3280047.930547966</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.203852139504448e-06</v>
+        <v>2.084820309533087e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.41111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2854817.590784939</v>
+        <v>2967004.759632528</v>
       </c>
     </row>
     <row r="8">
@@ -10953,28 +10953,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2232.810486867657</v>
+        <v>2313.53511912709</v>
       </c>
       <c r="AB8" t="n">
-        <v>3055.029812779075</v>
+        <v>3165.480815955867</v>
       </c>
       <c r="AC8" t="n">
-        <v>2763.462055208596</v>
+        <v>2863.371769661147</v>
       </c>
       <c r="AD8" t="n">
-        <v>2232810.486867657</v>
+        <v>2313535.11912709</v>
       </c>
       <c r="AE8" t="n">
-        <v>3055029.812779075</v>
+        <v>3165480.815955867</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.224678464595537e-06</v>
+        <v>2.120887152044754e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.11527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>2763462.055208596</v>
+        <v>2863371.769661148</v>
       </c>
     </row>
     <row r="9">
@@ -11059,28 +11059,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2164.503996922662</v>
+        <v>2255.233766662835</v>
       </c>
       <c r="AB9" t="n">
-        <v>2961.569859766501</v>
+        <v>3085.710333440126</v>
       </c>
       <c r="AC9" t="n">
-        <v>2678.92178893979</v>
+        <v>2791.214470038136</v>
       </c>
       <c r="AD9" t="n">
-        <v>2164503.996922662</v>
+        <v>2255233.766662835</v>
       </c>
       <c r="AE9" t="n">
-        <v>2961569.859766501</v>
+        <v>3085710.333440126</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.240826412311091e-06</v>
+        <v>2.148852022687858e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.89166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2678921.78893979</v>
+        <v>2791214.470038136</v>
       </c>
     </row>
     <row r="10">
@@ -11165,28 +11165,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2117.052699872376</v>
+        <v>2207.782469612548</v>
       </c>
       <c r="AB10" t="n">
-        <v>2896.644901738818</v>
+        <v>3020.785375412439</v>
       </c>
       <c r="AC10" t="n">
-        <v>2620.193177783518</v>
+        <v>2732.485858881864</v>
       </c>
       <c r="AD10" t="n">
-        <v>2117052.699872376</v>
+        <v>2207782.469612548</v>
       </c>
       <c r="AE10" t="n">
-        <v>2896644.901738818</v>
+        <v>3020785.375412439</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.253503305844797e-06</v>
+        <v>2.170805752912351e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.72083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2620193.177783519</v>
+        <v>2732485.858881864</v>
       </c>
     </row>
     <row r="11">
@@ -11271,28 +11271,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2078.600112432784</v>
+        <v>2169.329882172953</v>
       </c>
       <c r="AB11" t="n">
-        <v>2844.032375195537</v>
+        <v>2968.172848868981</v>
       </c>
       <c r="AC11" t="n">
-        <v>2572.601916931383</v>
+        <v>2684.894598029683</v>
       </c>
       <c r="AD11" t="n">
-        <v>2078600.112432784</v>
+        <v>2169329.882172953</v>
       </c>
       <c r="AE11" t="n">
-        <v>2844032.375195537</v>
+        <v>2968172.848868981</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.262860060595866e-06</v>
+        <v>2.187009696649476e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.59861111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>2572601.916931383</v>
+        <v>2684894.598029682</v>
       </c>
     </row>
     <row r="12">
@@ -11377,28 +11377,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2041.512006415677</v>
+        <v>2122.151297820538</v>
       </c>
       <c r="AB12" t="n">
-        <v>2793.286792331172</v>
+        <v>2903.62102838576</v>
       </c>
       <c r="AC12" t="n">
-        <v>2526.69942127372</v>
+        <v>2626.503512694331</v>
       </c>
       <c r="AD12" t="n">
-        <v>2041512.006415677</v>
+        <v>2122151.297820538</v>
       </c>
       <c r="AE12" t="n">
-        <v>2793286.792331172</v>
+        <v>2903621.02838576</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.271462238350881e-06</v>
+        <v>2.201906870730382e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.48611111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>2526699.42127372</v>
+        <v>2626503.512694331</v>
       </c>
     </row>
     <row r="13">
@@ -11483,28 +11483,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2010.764126099838</v>
+        <v>2091.403417504699</v>
       </c>
       <c r="AB13" t="n">
-        <v>2751.216185982299</v>
+        <v>2861.550422036886</v>
       </c>
       <c r="AC13" t="n">
-        <v>2488.643974548316</v>
+        <v>2588.448065968927</v>
       </c>
       <c r="AD13" t="n">
-        <v>2010764.126099838</v>
+        <v>2091403.417504699</v>
       </c>
       <c r="AE13" t="n">
-        <v>2751216.185982299</v>
+        <v>2861550.422036886</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.278404346714577e-06</v>
+        <v>2.213929151567604e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.39583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2488643.974548316</v>
+        <v>2588448.065968927</v>
       </c>
     </row>
     <row r="14">
@@ -11589,28 +11589,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1980.452098343861</v>
+        <v>2061.091389748721</v>
       </c>
       <c r="AB14" t="n">
-        <v>2709.741932334286</v>
+        <v>2820.076168388873</v>
       </c>
       <c r="AC14" t="n">
-        <v>2451.127965458989</v>
+        <v>2550.9320568796</v>
       </c>
       <c r="AD14" t="n">
-        <v>1980452.098343861</v>
+        <v>2061091.389748721</v>
       </c>
       <c r="AE14" t="n">
-        <v>2709741.932334286</v>
+        <v>2820076.168388873</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.284290047283798e-06</v>
+        <v>2.224121954886119e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.32083333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>2451127.965458989</v>
+        <v>2550932.0568796</v>
       </c>
     </row>
     <row r="15">
@@ -11695,28 +11695,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1951.815264723047</v>
+        <v>2032.454556127908</v>
       </c>
       <c r="AB15" t="n">
-        <v>2670.559753206354</v>
+        <v>2780.893989260941</v>
       </c>
       <c r="AC15" t="n">
-        <v>2415.685278514494</v>
+        <v>2515.489369935104</v>
       </c>
       <c r="AD15" t="n">
-        <v>1951815.264723047</v>
+        <v>2032454.556127908</v>
       </c>
       <c r="AE15" t="n">
-        <v>2670559.753206354</v>
+        <v>2780893.989260941</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.289421170856964e-06</v>
+        <v>2.233007988548414e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.25555555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>2415685.278514494</v>
+        <v>2515489.369935104</v>
       </c>
     </row>
     <row r="16">
@@ -11801,28 +11801,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1926.704476298487</v>
+        <v>2007.343767703347</v>
       </c>
       <c r="AB16" t="n">
-        <v>2636.202064674071</v>
+        <v>2746.536300728658</v>
       </c>
       <c r="AC16" t="n">
-        <v>2384.606639554413</v>
+        <v>2484.410730975022</v>
       </c>
       <c r="AD16" t="n">
-        <v>1926704.476298487</v>
+        <v>2007343.767703347</v>
       </c>
       <c r="AE16" t="n">
-        <v>2636202.064674071</v>
+        <v>2746536.300728658</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.293797717434077e-06</v>
+        <v>2.240587252554489e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.20138888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>2384606.639554413</v>
+        <v>2484410.730975023</v>
       </c>
     </row>
     <row r="17">
@@ -11907,28 +11907,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1901.999480745565</v>
+        <v>1982.638772150426</v>
       </c>
       <c r="AB17" t="n">
-        <v>2602.399599851081</v>
+        <v>2712.733835905669</v>
       </c>
       <c r="AC17" t="n">
-        <v>2354.030234532072</v>
+        <v>2453.834325952683</v>
       </c>
       <c r="AD17" t="n">
-        <v>1901999.480745565</v>
+        <v>1982638.772150426</v>
       </c>
       <c r="AE17" t="n">
-        <v>2602399.599851081</v>
+        <v>2712733.835905669</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.297570602414347e-06</v>
+        <v>2.247121100835588e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.15416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2354030.234532072</v>
+        <v>2453834.325952683</v>
       </c>
     </row>
     <row r="18">
@@ -12013,28 +12013,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1876.836717824403</v>
+        <v>1957.476009229263</v>
       </c>
       <c r="AB18" t="n">
-        <v>2567.970797519594</v>
+        <v>2678.30503357418</v>
       </c>
       <c r="AC18" t="n">
-        <v>2322.887268773974</v>
+        <v>2422.691360194585</v>
       </c>
       <c r="AD18" t="n">
-        <v>1876836.717824403</v>
+        <v>1957476.009229263</v>
       </c>
       <c r="AE18" t="n">
-        <v>2567970.797519594</v>
+        <v>2678305.033574181</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.300890741196984e-06</v>
+        <v>2.252870887322955e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>2322887.268773974</v>
+        <v>2422691.360194585</v>
       </c>
     </row>
     <row r="19">
@@ -12119,28 +12119,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1852.769304350981</v>
+        <v>1933.408595755842</v>
       </c>
       <c r="AB19" t="n">
-        <v>2535.040700625912</v>
+        <v>2645.3749366805</v>
       </c>
       <c r="AC19" t="n">
-        <v>2293.099974110144</v>
+        <v>2392.904065530754</v>
       </c>
       <c r="AD19" t="n">
-        <v>1852769.304350981</v>
+        <v>1933408.595755842</v>
       </c>
       <c r="AE19" t="n">
-        <v>2535040.700625912</v>
+        <v>2645374.936680499</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.304210879979621e-06</v>
+        <v>2.258620673810322e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.07083333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2293099.974110144</v>
+        <v>2392904.065530755</v>
       </c>
     </row>
     <row r="20">
@@ -12225,28 +12225,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1848.788527228062</v>
+        <v>1929.427818632922</v>
       </c>
       <c r="AB20" t="n">
-        <v>2529.594025746842</v>
+        <v>2639.928261801429</v>
       </c>
       <c r="AC20" t="n">
-        <v>2288.173122237076</v>
+        <v>2387.977213657687</v>
       </c>
       <c r="AD20" t="n">
-        <v>1848788.527228062</v>
+        <v>1929427.818632922</v>
       </c>
       <c r="AE20" t="n">
-        <v>2529594.025746842</v>
+        <v>2639928.261801429</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.304361795378832e-06</v>
+        <v>2.258882027741566e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.06944444444444</v>
       </c>
       <c r="AH20" t="n">
-        <v>2288173.122237077</v>
+        <v>2387977.213657686</v>
       </c>
     </row>
     <row r="21">
@@ -12331,28 +12331,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1854.949555284556</v>
+        <v>1935.588846689417</v>
       </c>
       <c r="AB21" t="n">
-        <v>2538.023816139113</v>
+        <v>2648.3580521937</v>
       </c>
       <c r="AC21" t="n">
-        <v>2295.798385265594</v>
+        <v>2395.602476686204</v>
       </c>
       <c r="AD21" t="n">
-        <v>1854949.555284556</v>
+        <v>1935588.846689417</v>
       </c>
       <c r="AE21" t="n">
-        <v>2538023.816139113</v>
+        <v>2648358.0521937</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.304361795378832e-06</v>
+        <v>2.258882027741566e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.07083333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>2295798.385265594</v>
+        <v>2395602.476686204</v>
       </c>
     </row>
   </sheetData>
@@ -12628,28 +12628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2676.398414131681</v>
+        <v>2785.612209283674</v>
       </c>
       <c r="AB2" t="n">
-        <v>3661.966384579937</v>
+        <v>3811.397517279494</v>
       </c>
       <c r="AC2" t="n">
-        <v>3312.47345243759</v>
+        <v>3447.643087560209</v>
       </c>
       <c r="AD2" t="n">
-        <v>2676398.414131681</v>
+        <v>2785612.209283674</v>
       </c>
       <c r="AE2" t="n">
-        <v>3661966.384579937</v>
+        <v>3811397.517279495</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004672016689858e-06</v>
+        <v>1.901055650666718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.28055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3312473.45243759</v>
+        <v>3447643.087560209</v>
       </c>
     </row>
     <row r="3">
@@ -12734,28 +12734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1777.588227909436</v>
+        <v>1868.656543182018</v>
       </c>
       <c r="AB3" t="n">
-        <v>2432.174635083583</v>
+        <v>2556.778321690048</v>
       </c>
       <c r="AC3" t="n">
-        <v>2200.051301489745</v>
+        <v>2312.762987128862</v>
       </c>
       <c r="AD3" t="n">
-        <v>1777588.227909436</v>
+        <v>1868656.543182018</v>
       </c>
       <c r="AE3" t="n">
-        <v>2432174.635083583</v>
+        <v>2556778.321690049</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258618614270868e-06</v>
+        <v>2.381577259987102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.58333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2200051.301489745</v>
+        <v>2312762.987128862</v>
       </c>
     </row>
     <row r="4">
@@ -12840,28 +12840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1551.31626608401</v>
+        <v>1633.183964397856</v>
       </c>
       <c r="AB4" t="n">
-        <v>2122.579354499603</v>
+        <v>2234.594351080552</v>
       </c>
       <c r="AC4" t="n">
-        <v>1920.003359964994</v>
+        <v>2021.327802486293</v>
       </c>
       <c r="AD4" t="n">
-        <v>1551316.26608401</v>
+        <v>1633183.964397856</v>
       </c>
       <c r="AE4" t="n">
-        <v>2122579.354499603</v>
+        <v>2234594.351080552</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.346691605341735e-06</v>
+        <v>2.548230311495431e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.36805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1920003.359964994</v>
+        <v>2021327.802486293</v>
       </c>
     </row>
     <row r="5">
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1428.473050211565</v>
+        <v>1510.425999871432</v>
       </c>
       <c r="AB5" t="n">
-        <v>1954.499847082725</v>
+        <v>2066.631488316325</v>
       </c>
       <c r="AC5" t="n">
-        <v>1767.965124834914</v>
+        <v>1869.395079606925</v>
       </c>
       <c r="AD5" t="n">
-        <v>1428473.050211565</v>
+        <v>1510425.999871432</v>
       </c>
       <c r="AE5" t="n">
-        <v>1954499.847082725</v>
+        <v>2066631.488316324</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.391149099878464e-06</v>
+        <v>2.632353457954702e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1767965.124834914</v>
+        <v>1869395.079606925</v>
       </c>
     </row>
     <row r="6">
@@ -13052,28 +13052,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1348.721880478922</v>
+        <v>1421.559554034624</v>
       </c>
       <c r="AB6" t="n">
-        <v>1845.380778281228</v>
+        <v>1945.040496611509</v>
       </c>
       <c r="AC6" t="n">
-        <v>1669.260226810256</v>
+        <v>1759.408561496388</v>
       </c>
       <c r="AD6" t="n">
-        <v>1348721.880478922</v>
+        <v>1421559.554034624</v>
       </c>
       <c r="AE6" t="n">
-        <v>1845380.778281228</v>
+        <v>1945040.496611509</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.417924636360811e-06</v>
+        <v>2.683018534799491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.49444444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>1669260.226810256</v>
+        <v>1759408.561496388</v>
       </c>
     </row>
     <row r="7">
@@ -13158,28 +13158,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1327.262178532985</v>
+        <v>1400.099852088687</v>
       </c>
       <c r="AB7" t="n">
-        <v>1816.018667343565</v>
+        <v>1915.678385673846</v>
       </c>
       <c r="AC7" t="n">
-        <v>1642.700394530502</v>
+        <v>1732.848729216634</v>
       </c>
       <c r="AD7" t="n">
-        <v>1327262.178532985</v>
+        <v>1400099.852088687</v>
       </c>
       <c r="AE7" t="n">
-        <v>1816018.667343565</v>
+        <v>1915678.385673846</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.425839417585153e-06</v>
+        <v>2.697995004055498e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.40277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1642700.394530502</v>
+        <v>1732848.729216634</v>
       </c>
     </row>
   </sheetData>
@@ -13455,28 +13455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4000.773083936107</v>
+        <v>4133.64057398715</v>
       </c>
       <c r="AB2" t="n">
-        <v>5474.034235093295</v>
+        <v>5655.829396681107</v>
       </c>
       <c r="AC2" t="n">
-        <v>4951.600090551087</v>
+        <v>5116.044977068061</v>
       </c>
       <c r="AD2" t="n">
-        <v>4000773.083936107</v>
+        <v>4133640.57398715</v>
       </c>
       <c r="AE2" t="n">
-        <v>5474034.235093296</v>
+        <v>5655829.396681107</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.320946919024854e-07</v>
+        <v>1.515895818664614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.89027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>4951600.090551088</v>
+        <v>5116044.977068061</v>
       </c>
     </row>
     <row r="3">
@@ -13561,28 +13561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2339.509545159005</v>
+        <v>2434.47585294873</v>
       </c>
       <c r="AB3" t="n">
-        <v>3201.020171563538</v>
+        <v>3330.957263499258</v>
       </c>
       <c r="AC3" t="n">
-        <v>2895.51929904942</v>
+        <v>3013.055377298645</v>
       </c>
       <c r="AD3" t="n">
-        <v>2339509.545159006</v>
+        <v>2434475.85294873</v>
       </c>
       <c r="AE3" t="n">
-        <v>3201020.171563538</v>
+        <v>3330957.263499258</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.130295519532979e-06</v>
+        <v>2.059152964908215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.79583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2895519.29904942</v>
+        <v>3013055.377298645</v>
       </c>
     </row>
     <row r="4">
@@ -13667,28 +13667,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2001.184078659798</v>
+        <v>2086.568504324529</v>
       </c>
       <c r="AB4" t="n">
-        <v>2738.108342432972</v>
+        <v>2854.935080522464</v>
       </c>
       <c r="AC4" t="n">
-        <v>2476.787125190363</v>
+        <v>2582.464083363951</v>
       </c>
       <c r="AD4" t="n">
-        <v>2001184.078659798</v>
+        <v>2086568.50432453</v>
       </c>
       <c r="AE4" t="n">
-        <v>2738108.342432972</v>
+        <v>2854935.080522464</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.23420666692448e-06</v>
+        <v>2.248456508574949e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.12777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2476787.125190363</v>
+        <v>2582464.083363951</v>
       </c>
     </row>
     <row r="5">
@@ -13773,28 +13773,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1838.002210043248</v>
+        <v>1923.301294853408</v>
       </c>
       <c r="AB5" t="n">
-        <v>2514.83571071585</v>
+        <v>2631.545681683144</v>
       </c>
       <c r="AC5" t="n">
-        <v>2274.823320079216</v>
+        <v>2380.394655220866</v>
       </c>
       <c r="AD5" t="n">
-        <v>1838002.210043248</v>
+        <v>1923301.294853408</v>
       </c>
       <c r="AE5" t="n">
-        <v>2514835.71071585</v>
+        <v>2631545.681683144</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288014919992327e-06</v>
+        <v>2.346483459869039e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.37083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2274823.320079216</v>
+        <v>2380394.655220866</v>
       </c>
     </row>
     <row r="6">
@@ -13879,28 +13879,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1733.294551719715</v>
+        <v>1818.678887875895</v>
       </c>
       <c r="AB6" t="n">
-        <v>2371.570073221726</v>
+        <v>2488.39668884167</v>
       </c>
       <c r="AC6" t="n">
-        <v>2145.230753952947</v>
+        <v>2250.907601345308</v>
       </c>
       <c r="AD6" t="n">
-        <v>1733294.551719715</v>
+        <v>1818678.887875895</v>
       </c>
       <c r="AE6" t="n">
-        <v>2371570.073221726</v>
+        <v>2488396.68884167</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.320557635919588e-06</v>
+        <v>2.405769220831334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>2145230.753952947</v>
+        <v>2250907.601345308</v>
       </c>
     </row>
     <row r="7">
@@ -13985,28 +13985,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1662.595289874995</v>
+        <v>1747.979626031175</v>
       </c>
       <c r="AB7" t="n">
-        <v>2274.836224134478</v>
+        <v>2391.662839754422</v>
       </c>
       <c r="AC7" t="n">
-        <v>2057.729047655776</v>
+        <v>2163.405895048137</v>
       </c>
       <c r="AD7" t="n">
-        <v>1662595.289874995</v>
+        <v>1747979.626031175</v>
       </c>
       <c r="AE7" t="n">
-        <v>2274836.224134478</v>
+        <v>2391662.839754422</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.342950890938842e-06</v>
+        <v>2.44656486822618e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.6625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2057729.047655776</v>
+        <v>2163405.895048137</v>
       </c>
     </row>
     <row r="8">
@@ -14091,28 +14091,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1604.862818968599</v>
+        <v>1680.750613854358</v>
       </c>
       <c r="AB8" t="n">
-        <v>2195.844110463488</v>
+        <v>2299.677139359409</v>
       </c>
       <c r="AC8" t="n">
-        <v>1986.275830447417</v>
+        <v>2080.199180796082</v>
       </c>
       <c r="AD8" t="n">
-        <v>1604862.818968599</v>
+        <v>1680750.613854358</v>
       </c>
       <c r="AE8" t="n">
-        <v>2195844.110463487</v>
+        <v>2299677.139359409</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.359061146348377e-06</v>
+        <v>2.475914254841178e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.46527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1986275.830447417</v>
+        <v>2080199.180796082</v>
       </c>
     </row>
     <row r="9">
@@ -14197,28 +14197,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1557.727329140221</v>
+        <v>1633.61512402598</v>
       </c>
       <c r="AB9" t="n">
-        <v>2131.351253809251</v>
+        <v>2235.184282705172</v>
       </c>
       <c r="AC9" t="n">
-        <v>1927.938081515968</v>
+        <v>2021.861431864633</v>
       </c>
       <c r="AD9" t="n">
-        <v>1557727.329140221</v>
+        <v>1633615.12402598</v>
       </c>
       <c r="AE9" t="n">
-        <v>2131351.253809251</v>
+        <v>2235184.282705172</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.370821632797338e-06</v>
+        <v>2.497339307070126e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.32222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1927938.081515968</v>
+        <v>2021861.431864633</v>
       </c>
     </row>
     <row r="10">
@@ -14303,28 +14303,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1515.519666978723</v>
+        <v>1591.407461864483</v>
       </c>
       <c r="AB10" t="n">
-        <v>2073.600868369254</v>
+        <v>2177.433897265175</v>
       </c>
       <c r="AC10" t="n">
-        <v>1875.699311809189</v>
+        <v>1969.622662157855</v>
       </c>
       <c r="AD10" t="n">
-        <v>1515519.666978723</v>
+        <v>1591407.461864483</v>
       </c>
       <c r="AE10" t="n">
-        <v>2073600.868369254</v>
+        <v>2177433.897265175</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.379360068164391e-06</v>
+        <v>2.512894481976074e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.22222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1875699.311809189</v>
+        <v>1969622.662157855</v>
       </c>
     </row>
     <row r="11">
@@ -14409,28 +14409,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1518.000401346759</v>
+        <v>1593.888196232518</v>
       </c>
       <c r="AB11" t="n">
-        <v>2076.995118573876</v>
+        <v>2180.828147469797</v>
       </c>
       <c r="AC11" t="n">
-        <v>1878.769619538142</v>
+        <v>1972.692969886808</v>
       </c>
       <c r="AD11" t="n">
-        <v>1518000.401346759</v>
+        <v>1593888.196232518</v>
       </c>
       <c r="AE11" t="n">
-        <v>2076995.118573876</v>
+        <v>2180828.147469797</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.380165580934868e-06</v>
+        <v>2.514361951306824e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.2125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1878769.619538142</v>
+        <v>1972692.969886807</v>
       </c>
     </row>
   </sheetData>
@@ -14706,28 +14706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1920.880943291141</v>
+        <v>2008.907532470365</v>
       </c>
       <c r="AB2" t="n">
-        <v>2628.234049897276</v>
+        <v>2748.675912671324</v>
       </c>
       <c r="AC2" t="n">
-        <v>2377.399080924736</v>
+        <v>2486.346141356846</v>
       </c>
       <c r="AD2" t="n">
-        <v>1920880.943291141</v>
+        <v>2008907.532470365</v>
       </c>
       <c r="AE2" t="n">
-        <v>2628234.049897276</v>
+        <v>2748675.912671324</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.153796529537671e-06</v>
+        <v>2.261069444112424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.05416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2377399.080924736</v>
+        <v>2486346.141356846</v>
       </c>
     </row>
     <row r="3">
@@ -14812,28 +14812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1374.185960456413</v>
+        <v>1453.409810160019</v>
       </c>
       <c r="AB3" t="n">
-        <v>1880.221855902356</v>
+        <v>1988.619422176406</v>
       </c>
       <c r="AC3" t="n">
-        <v>1700.776120882983</v>
+        <v>1798.828375568778</v>
       </c>
       <c r="AD3" t="n">
-        <v>1374185.960456413</v>
+        <v>1453409.810160019</v>
       </c>
       <c r="AE3" t="n">
-        <v>1880221.855902356</v>
+        <v>1988619.422176406</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.369969412743456e-06</v>
+        <v>2.684698644191695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.73055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1700776.120882983</v>
+        <v>1798828.375568778</v>
       </c>
     </row>
     <row r="4">
@@ -14918,28 +14918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1203.75398969142</v>
+        <v>1282.892498540454</v>
       </c>
       <c r="AB4" t="n">
-        <v>1647.029314573801</v>
+        <v>1755.310113725653</v>
       </c>
       <c r="AC4" t="n">
-        <v>1489.839148411038</v>
+        <v>1587.785780064894</v>
       </c>
       <c r="AD4" t="n">
-        <v>1203753.98969142</v>
+        <v>1282892.498540454</v>
       </c>
       <c r="AE4" t="n">
-        <v>1647029.314573801</v>
+        <v>1755310.113725653</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.444300703489782e-06</v>
+        <v>2.830364024477853e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.81944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1489839.148411038</v>
+        <v>1587785.780064893</v>
       </c>
     </row>
     <row r="5">
@@ -15024,28 +15024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1183.411260231208</v>
+        <v>1262.549769080242</v>
       </c>
       <c r="AB5" t="n">
-        <v>1619.195494668455</v>
+        <v>1727.476293820308</v>
       </c>
       <c r="AC5" t="n">
-        <v>1464.661749212447</v>
+        <v>1562.608380866303</v>
       </c>
       <c r="AD5" t="n">
-        <v>1183411.260231208</v>
+        <v>1262549.769080242</v>
       </c>
       <c r="AE5" t="n">
-        <v>1619195.494668456</v>
+        <v>1727476.293820308</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.45514432708101e-06</v>
+        <v>2.851614032896069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.69305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1464661.749212447</v>
+        <v>1562608.380866303</v>
       </c>
     </row>
   </sheetData>
@@ -15321,28 +15321,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9275.59366495999</v>
+        <v>9479.022453905738</v>
       </c>
       <c r="AB2" t="n">
-        <v>12691.27646271087</v>
+        <v>12969.61670639123</v>
       </c>
       <c r="AC2" t="n">
-        <v>11480.03884942765</v>
+        <v>11731.81469090414</v>
       </c>
       <c r="AD2" t="n">
-        <v>9275593.664959989</v>
+        <v>9479022.453905739</v>
       </c>
       <c r="AE2" t="n">
-        <v>12691276.46271087</v>
+        <v>12969616.70639123</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.378168142800236e-07</v>
+        <v>9.25303721932986e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>11480038.84942765</v>
+        <v>11731814.69090413</v>
       </c>
     </row>
     <row r="3">
@@ -15427,28 +15427,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3782.065061003404</v>
+        <v>3904.088198029026</v>
       </c>
       <c r="AB3" t="n">
-        <v>5174.788269399756</v>
+        <v>5341.745708759093</v>
       </c>
       <c r="AC3" t="n">
-        <v>4680.913739828999</v>
+        <v>4831.936995502113</v>
       </c>
       <c r="AD3" t="n">
-        <v>3782065.061003405</v>
+        <v>3904088.198029026</v>
       </c>
       <c r="AE3" t="n">
-        <v>5174788.269399757</v>
+        <v>5341745.708759093</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.054346478451789e-07</v>
+        <v>1.557783296046245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.94166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4680913.739828998</v>
+        <v>4831936.995502113</v>
       </c>
     </row>
     <row r="4">
@@ -15533,28 +15533,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3004.885214526024</v>
+        <v>3116.647304207059</v>
       </c>
       <c r="AB4" t="n">
-        <v>4111.416516694356</v>
+        <v>4264.334338391367</v>
       </c>
       <c r="AC4" t="n">
-        <v>3719.028694750214</v>
+        <v>3857.352254165968</v>
       </c>
       <c r="AD4" t="n">
-        <v>3004885.214526024</v>
+        <v>3116647.304207059</v>
       </c>
       <c r="AE4" t="n">
-        <v>4111416.516694356</v>
+        <v>4264334.338391367</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.039888851415185e-06</v>
+        <v>1.789109226529492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.97361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>3719028.694750214</v>
+        <v>3857352.254165967</v>
       </c>
     </row>
     <row r="5">
@@ -15639,28 +15639,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2691.957092005864</v>
+        <v>2793.628816051454</v>
       </c>
       <c r="AB5" t="n">
-        <v>3683.25445404782</v>
+        <v>3822.366192326901</v>
       </c>
       <c r="AC5" t="n">
-        <v>3331.72981843345</v>
+        <v>3457.564927655721</v>
       </c>
       <c r="AD5" t="n">
-        <v>2691957.092005864</v>
+        <v>2793628.816051454</v>
       </c>
       <c r="AE5" t="n">
-        <v>3683254.45404782</v>
+        <v>3822366.192326901</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.110929726493886e-06</v>
+        <v>1.911333717051786e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.69861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>3331729.81843345</v>
+        <v>3457564.927655722</v>
       </c>
     </row>
     <row r="6">
@@ -15745,28 +15745,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2516.527301855575</v>
+        <v>2618.113685046593</v>
       </c>
       <c r="AB6" t="n">
-        <v>3443.223675748059</v>
+        <v>3582.218646904943</v>
       </c>
       <c r="AC6" t="n">
-        <v>3114.607240729315</v>
+        <v>3240.336726919648</v>
       </c>
       <c r="AD6" t="n">
-        <v>2516527.301855575</v>
+        <v>2618113.685046593</v>
       </c>
       <c r="AE6" t="n">
-        <v>3443223.675748059</v>
+        <v>3582218.646904944</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.154302050226146e-06</v>
+        <v>1.985954984949607e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.99583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3114607.240729315</v>
+        <v>3240336.726919648</v>
       </c>
     </row>
     <row r="7">
@@ -15851,28 +15851,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2406.891629156432</v>
+        <v>2498.472987566577</v>
       </c>
       <c r="AB7" t="n">
-        <v>3293.215311576567</v>
+        <v>3418.520966437719</v>
       </c>
       <c r="AC7" t="n">
-        <v>2978.915464296294</v>
+        <v>3092.262123325083</v>
       </c>
       <c r="AD7" t="n">
-        <v>2406891.629156433</v>
+        <v>2498472.987566577</v>
       </c>
       <c r="AE7" t="n">
-        <v>3293215.311576567</v>
+        <v>3418520.966437719</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.184513117101721e-06</v>
+        <v>2.037932557761193e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.53611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2978915.464296294</v>
+        <v>3092262.123325083</v>
       </c>
     </row>
     <row r="8">
@@ -15957,28 +15957,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2329.594208316391</v>
+        <v>2421.004974525943</v>
       </c>
       <c r="AB8" t="n">
-        <v>3187.453570261682</v>
+        <v>3312.525813347987</v>
       </c>
       <c r="AC8" t="n">
-        <v>2883.247475134971</v>
+        <v>2996.382998881109</v>
       </c>
       <c r="AD8" t="n">
-        <v>2329594.208316391</v>
+        <v>2421004.974525943</v>
       </c>
       <c r="AE8" t="n">
-        <v>3187453.570261682</v>
+        <v>3312525.813347987</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.206049719230843e-06</v>
+        <v>2.074985876993215e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.22361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>2883247.475134971</v>
+        <v>2996382.998881109</v>
       </c>
     </row>
     <row r="9">
@@ -16063,28 +16063,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2256.212727578924</v>
+        <v>2347.708745134497</v>
       </c>
       <c r="AB9" t="n">
-        <v>3087.049790954226</v>
+        <v>3212.238678693181</v>
       </c>
       <c r="AC9" t="n">
-        <v>2792.426091607032</v>
+        <v>2905.667127603882</v>
       </c>
       <c r="AD9" t="n">
-        <v>2256212.727578925</v>
+        <v>2347708.745134498</v>
       </c>
       <c r="AE9" t="n">
-        <v>3087049.790954227</v>
+        <v>3212238.67869318</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.223099529249731e-06</v>
+        <v>2.104319754718565e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.98333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2792426.091607032</v>
+        <v>2905667.127603882</v>
       </c>
     </row>
     <row r="10">
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2208.365856991204</v>
+        <v>2299.861874546777</v>
       </c>
       <c r="AB10" t="n">
-        <v>3021.58359176115</v>
+        <v>3146.772479500105</v>
       </c>
       <c r="AC10" t="n">
-        <v>2733.207894582558</v>
+        <v>2846.448930579409</v>
       </c>
       <c r="AD10" t="n">
-        <v>2208365.856991204</v>
+        <v>2299861.874546777</v>
       </c>
       <c r="AE10" t="n">
-        <v>3021583.59176115</v>
+        <v>3146772.479500105</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.235812106895394e-06</v>
+        <v>2.126191505654134e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.80694444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>2733207.894582558</v>
+        <v>2846448.930579409</v>
       </c>
     </row>
     <row r="11">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2169.428500930347</v>
+        <v>2260.924518485923</v>
       </c>
       <c r="AB11" t="n">
-        <v>2968.3077834036</v>
+        <v>3093.496671142727</v>
       </c>
       <c r="AC11" t="n">
-        <v>2685.016654601699</v>
+        <v>2798.257690598595</v>
       </c>
       <c r="AD11" t="n">
-        <v>2169428.500930347</v>
+        <v>2260924.518485923</v>
       </c>
       <c r="AE11" t="n">
-        <v>2968307.7834036</v>
+        <v>3093496.671142727</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.2455334898009e-06</v>
+        <v>2.142916962251921e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.67777777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>2685016.654601699</v>
+        <v>2798257.690598595</v>
       </c>
     </row>
     <row r="12">
@@ -16381,28 +16381,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2130.18223624286</v>
+        <v>2221.678253798436</v>
       </c>
       <c r="AB12" t="n">
-        <v>2914.60931263518</v>
+        <v>3039.798200374305</v>
       </c>
       <c r="AC12" t="n">
-        <v>2636.44309051714</v>
+        <v>2749.684126514035</v>
       </c>
       <c r="AD12" t="n">
-        <v>2130182.23624286</v>
+        <v>2221678.253798436</v>
       </c>
       <c r="AE12" t="n">
-        <v>2914609.31263518</v>
+        <v>3039798.200374304</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.255105312969399e-06</v>
+        <v>2.15938510413282e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.55</v>
       </c>
       <c r="AH12" t="n">
-        <v>2636443.09051714</v>
+        <v>2749684.126514035</v>
       </c>
     </row>
     <row r="13">
@@ -16487,28 +16487,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2100.185275199016</v>
+        <v>2181.505675773124</v>
       </c>
       <c r="AB13" t="n">
-        <v>2873.56614716247</v>
+        <v>2984.832306830838</v>
       </c>
       <c r="AC13" t="n">
-        <v>2599.317027152701</v>
+        <v>2699.964100705357</v>
       </c>
       <c r="AD13" t="n">
-        <v>2100185.275199017</v>
+        <v>2181505.675773125</v>
       </c>
       <c r="AE13" t="n">
-        <v>2873566.147162471</v>
+        <v>2984832.306830838</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.261685941397742e-06</v>
+        <v>2.170706951675938e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.46388888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>2599317.027152701</v>
+        <v>2699964.100705357</v>
       </c>
     </row>
     <row r="14">
@@ -16593,28 +16593,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2070.273172815537</v>
+        <v>2151.593573389644</v>
       </c>
       <c r="AB14" t="n">
-        <v>2832.63908905257</v>
+        <v>2943.905248720938</v>
       </c>
       <c r="AC14" t="n">
-        <v>2562.295990027324</v>
+        <v>2662.943063579978</v>
       </c>
       <c r="AD14" t="n">
-        <v>2070273.172815537</v>
+        <v>2151593.573389644</v>
       </c>
       <c r="AE14" t="n">
-        <v>2832639.08905257</v>
+        <v>2943905.248720938</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.267817890615061e-06</v>
+        <v>2.181256855068388e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.38333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2562295.990027323</v>
+        <v>2662943.063579978</v>
       </c>
     </row>
     <row r="15">
@@ -16699,28 +16699,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2044.960961494233</v>
+        <v>2126.281362068341</v>
       </c>
       <c r="AB15" t="n">
-        <v>2798.005804826812</v>
+        <v>2909.27196449518</v>
       </c>
       <c r="AC15" t="n">
-        <v>2530.968057839952</v>
+        <v>2631.615131392607</v>
       </c>
       <c r="AD15" t="n">
-        <v>2044960.961494233</v>
+        <v>2126281.362068341</v>
       </c>
       <c r="AE15" t="n">
-        <v>2798005.804826812</v>
+        <v>2909271.96449518</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.272753361936319e-06</v>
+        <v>2.189748240725726e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.32083333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>2530968.057839951</v>
+        <v>2631615.131392607</v>
       </c>
     </row>
     <row r="16">
@@ -16805,28 +16805,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2018.354586828745</v>
+        <v>2099.674987402853</v>
       </c>
       <c r="AB16" t="n">
-        <v>2761.601789219083</v>
+        <v>2872.867948887451</v>
       </c>
       <c r="AC16" t="n">
-        <v>2498.038390388468</v>
+        <v>2598.685463941123</v>
       </c>
       <c r="AD16" t="n">
-        <v>2018354.586828745</v>
+        <v>2099674.987402853</v>
       </c>
       <c r="AE16" t="n">
-        <v>2761601.789219083</v>
+        <v>2872867.948887451</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.277240154046552e-06</v>
+        <v>2.197467682232397e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.26388888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>2498038.390388468</v>
+        <v>2598685.463941123</v>
       </c>
     </row>
     <row r="17">
@@ -16911,28 +16911,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1994.477906824237</v>
+        <v>2075.798307398345</v>
       </c>
       <c r="AB17" t="n">
-        <v>2728.932662272136</v>
+        <v>2840.198821940504</v>
       </c>
       <c r="AC17" t="n">
-        <v>2468.48715906593</v>
+        <v>2569.134232618585</v>
       </c>
       <c r="AD17" t="n">
-        <v>1994477.906824237</v>
+        <v>2075798.307398345</v>
       </c>
       <c r="AE17" t="n">
-        <v>2728932.662272136</v>
+        <v>2840198.821940504</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.281278266945763e-06</v>
+        <v>2.204415179588402e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.21111111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>2468487.15906593</v>
+        <v>2569134.232618585</v>
       </c>
     </row>
     <row r="18">
@@ -17017,28 +17017,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1970.804566235899</v>
+        <v>2052.124966810007</v>
       </c>
       <c r="AB18" t="n">
-        <v>2696.541753285094</v>
+        <v>2807.807912953463</v>
       </c>
       <c r="AC18" t="n">
-        <v>2439.187592971685</v>
+        <v>2539.83466652434</v>
       </c>
       <c r="AD18" t="n">
-        <v>1970804.566235899</v>
+        <v>2052124.966810007</v>
       </c>
       <c r="AE18" t="n">
-        <v>2696541.753285094</v>
+        <v>2807807.912953463</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.285017260370957e-06</v>
+        <v>2.210848047510627e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.16527777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>2439187.592971685</v>
+        <v>2539834.66652434</v>
       </c>
     </row>
     <row r="19">
@@ -17123,28 +17123,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1947.828167283311</v>
+        <v>2029.148567857419</v>
       </c>
       <c r="AB19" t="n">
-        <v>2665.104430590982</v>
+        <v>2776.370590259349</v>
       </c>
       <c r="AC19" t="n">
-        <v>2410.750604232939</v>
+        <v>2511.397677785594</v>
       </c>
       <c r="AD19" t="n">
-        <v>1947828.167283311</v>
+        <v>2029148.567857419</v>
       </c>
       <c r="AE19" t="n">
-        <v>2665104.430590982</v>
+        <v>2776370.590259349</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.288457134322137e-06</v>
+        <v>2.216766285999075e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.12083333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2410750.604232938</v>
+        <v>2511397.677785594</v>
       </c>
     </row>
     <row r="20">
@@ -17229,28 +17229,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1926.902044916633</v>
+        <v>2008.222445490741</v>
       </c>
       <c r="AB20" t="n">
-        <v>2636.472386773531</v>
+        <v>2747.738546441898</v>
       </c>
       <c r="AC20" t="n">
-        <v>2384.851162492099</v>
+        <v>2485.498236044754</v>
       </c>
       <c r="AD20" t="n">
-        <v>1926902.044916633</v>
+        <v>2008222.445490741</v>
       </c>
       <c r="AE20" t="n">
-        <v>2636472.38677353</v>
+        <v>2747738.546441898</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.291149209588277e-06</v>
+        <v>2.221397950903078e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.0875</v>
       </c>
       <c r="AH20" t="n">
-        <v>2384851.162492099</v>
+        <v>2485498.236044754</v>
       </c>
     </row>
     <row r="21">
@@ -17335,28 +17335,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1904.601486553649</v>
+        <v>1985.921887127757</v>
       </c>
       <c r="AB21" t="n">
-        <v>2605.959778990096</v>
+        <v>2717.225938658464</v>
       </c>
       <c r="AC21" t="n">
-        <v>2357.250635170802</v>
+        <v>2457.897708723456</v>
       </c>
       <c r="AD21" t="n">
-        <v>1904601.486553649</v>
+        <v>1985921.887127757</v>
       </c>
       <c r="AE21" t="n">
-        <v>2605959.778990096</v>
+        <v>2717225.938658464</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.293990844591425e-06</v>
+        <v>2.22628693052397e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.05138888888889</v>
       </c>
       <c r="AH21" t="n">
-        <v>2357250.635170802</v>
+        <v>2457897.708723456</v>
       </c>
     </row>
     <row r="22">
@@ -17441,28 +17441,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1904.495847133417</v>
+        <v>1985.816247707525</v>
       </c>
       <c r="AB22" t="n">
-        <v>2605.815238474851</v>
+        <v>2717.081398143219</v>
       </c>
       <c r="AC22" t="n">
-        <v>2357.119889399468</v>
+        <v>2457.766962952123</v>
       </c>
       <c r="AD22" t="n">
-        <v>1904495.847133417</v>
+        <v>1985816.247707525</v>
       </c>
       <c r="AE22" t="n">
-        <v>2605815.238474851</v>
+        <v>2717081.398143219</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.294140404328433e-06</v>
+        <v>2.226544245240859e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.05</v>
       </c>
       <c r="AH22" t="n">
-        <v>2357119.889399468</v>
+        <v>2457766.962952123</v>
       </c>
     </row>
     <row r="23">
@@ -17547,28 +17547,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1912.120026044331</v>
+        <v>1993.440426618439</v>
       </c>
       <c r="AB23" t="n">
-        <v>2616.246976415799</v>
+        <v>2727.513136084167</v>
       </c>
       <c r="AC23" t="n">
-        <v>2366.556036912369</v>
+        <v>2467.203110465023</v>
       </c>
       <c r="AD23" t="n">
-        <v>1912120.026044331</v>
+        <v>1993440.426618439</v>
       </c>
       <c r="AE23" t="n">
-        <v>2616246.976415799</v>
+        <v>2727513.136084167</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.294140404328433e-06</v>
+        <v>2.226544245240859e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.05138888888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>2366556.036912369</v>
+        <v>2467203.110465023</v>
       </c>
     </row>
   </sheetData>
@@ -17844,28 +17844,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1549.768663877778</v>
+        <v>1644.390212480769</v>
       </c>
       <c r="AB2" t="n">
-        <v>2120.461856885645</v>
+        <v>2249.927234092367</v>
       </c>
       <c r="AC2" t="n">
-        <v>1918.087953351387</v>
+        <v>2035.197336663296</v>
       </c>
       <c r="AD2" t="n">
-        <v>1549768.663877778</v>
+        <v>1644390.212480769</v>
       </c>
       <c r="AE2" t="n">
-        <v>2120461.856885646</v>
+        <v>2249927.234092367</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.246820420682258e-06</v>
+        <v>2.49945149408511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1918087.953351387</v>
+        <v>2035197.336663296</v>
       </c>
     </row>
     <row r="3">
@@ -17950,28 +17950,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1150.301098479315</v>
+        <v>1227.687785625014</v>
       </c>
       <c r="AB3" t="n">
-        <v>1573.892710642271</v>
+        <v>1679.776590054701</v>
       </c>
       <c r="AC3" t="n">
-        <v>1423.682599310865</v>
+        <v>1519.461069881131</v>
       </c>
       <c r="AD3" t="n">
-        <v>1150301.098479315</v>
+        <v>1227687.785625014</v>
       </c>
       <c r="AE3" t="n">
-        <v>1573892.710642271</v>
+        <v>1679776.590054701</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.440662871959732e-06</v>
+        <v>2.888039775465267e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.25694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1423682.599310865</v>
+        <v>1519461.069881131</v>
       </c>
     </row>
     <row r="4">
@@ -18056,28 +18056,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1094.90509774669</v>
+        <v>1172.37703623841</v>
       </c>
       <c r="AB4" t="n">
-        <v>1498.097458540823</v>
+        <v>1604.097982605903</v>
       </c>
       <c r="AC4" t="n">
-        <v>1355.121139690675</v>
+        <v>1451.005122511653</v>
       </c>
       <c r="AD4" t="n">
-        <v>1094905.09774669</v>
+        <v>1172377.03623841</v>
       </c>
       <c r="AE4" t="n">
-        <v>1498097.458540823</v>
+        <v>1604097.982605903</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.467152883768658e-06</v>
+        <v>2.941143252514448e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.94305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>1355121.139690675</v>
+        <v>1451005.122511653</v>
       </c>
     </row>
   </sheetData>
@@ -18353,28 +18353,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5763.101109416688</v>
+        <v>5919.958545125134</v>
       </c>
       <c r="AB2" t="n">
-        <v>7885.32918798124</v>
+        <v>8099.948451579221</v>
       </c>
       <c r="AC2" t="n">
-        <v>7132.764437409037</v>
+        <v>7326.900739709244</v>
       </c>
       <c r="AD2" t="n">
-        <v>5763101.109416688</v>
+        <v>5919958.545125134</v>
       </c>
       <c r="AE2" t="n">
-        <v>7885329.18798124</v>
+        <v>8099948.451579221</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.923953031639567e-07</v>
+        <v>1.226283531651831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>7132764.437409037</v>
+        <v>7326900.739709244</v>
       </c>
     </row>
     <row r="3">
@@ -18459,28 +18459,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2932.6224878778</v>
+        <v>3030.7650948295</v>
       </c>
       <c r="AB3" t="n">
-        <v>4012.543466087746</v>
+        <v>4146.826510665312</v>
       </c>
       <c r="AC3" t="n">
-        <v>3629.591949324305</v>
+        <v>3751.059208594819</v>
       </c>
       <c r="AD3" t="n">
-        <v>2932622.4878778</v>
+        <v>3030765.0948295</v>
       </c>
       <c r="AE3" t="n">
-        <v>4012543.466087746</v>
+        <v>4146826.510665312</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.024210164370308e-06</v>
+        <v>1.813952306981947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3629591.949324306</v>
+        <v>3751059.208594819</v>
       </c>
     </row>
     <row r="4">
@@ -18565,28 +18565,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2419.421541456949</v>
+        <v>2517.478718045527</v>
       </c>
       <c r="AB4" t="n">
-        <v>3310.359290366853</v>
+        <v>3444.525445352672</v>
       </c>
       <c r="AC4" t="n">
-        <v>2994.423245812559</v>
+        <v>3115.784771269908</v>
       </c>
       <c r="AD4" t="n">
-        <v>2419421.541456949</v>
+        <v>2517478.718045527</v>
       </c>
       <c r="AE4" t="n">
-        <v>3310359.290366853</v>
+        <v>3444525.445352672</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.143470707268749e-06</v>
+        <v>2.025171590336305e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.8875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2994423.24581256</v>
+        <v>3115784.771269908</v>
       </c>
     </row>
     <row r="5">
@@ -18671,28 +18671,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2202.423205828288</v>
+        <v>2300.395041562294</v>
       </c>
       <c r="AB5" t="n">
-        <v>3013.452594268782</v>
+        <v>3147.501982132404</v>
       </c>
       <c r="AC5" t="n">
-        <v>2725.852908078936</v>
+        <v>2847.108810504345</v>
       </c>
       <c r="AD5" t="n">
-        <v>2202423.205828288</v>
+        <v>2300395.041562295</v>
       </c>
       <c r="AE5" t="n">
-        <v>3013452.594268783</v>
+        <v>3147501.982132404</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.204889109413317e-06</v>
+        <v>2.133948144345394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.92361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2725852.908078936</v>
+        <v>2847108.810504345</v>
       </c>
     </row>
     <row r="6">
@@ -18777,28 +18777,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2081.097872050443</v>
+        <v>2169.255545548685</v>
       </c>
       <c r="AB6" t="n">
-        <v>2847.449920097796</v>
+        <v>2968.071138220157</v>
       </c>
       <c r="AC6" t="n">
-        <v>2575.693296144725</v>
+        <v>2684.802594502431</v>
       </c>
       <c r="AD6" t="n">
-        <v>2081097.872050443</v>
+        <v>2169255.545548685</v>
       </c>
       <c r="AE6" t="n">
-        <v>2847449.920097796</v>
+        <v>2968071.138220157</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.24251759882847e-06</v>
+        <v>2.200590995156026e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.38055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>2575693.296144725</v>
+        <v>2684802.594502431</v>
       </c>
     </row>
     <row r="7">
@@ -18883,28 +18883,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1999.95146715942</v>
+        <v>2078.46557062249</v>
       </c>
       <c r="AB7" t="n">
-        <v>2736.421828999173</v>
+        <v>2843.848289155128</v>
       </c>
       <c r="AC7" t="n">
-        <v>2475.26157023165</v>
+        <v>2572.435399804304</v>
       </c>
       <c r="AD7" t="n">
-        <v>1999951.46715942</v>
+        <v>2078465.57062249</v>
       </c>
       <c r="AE7" t="n">
-        <v>2736421.828999173</v>
+        <v>2843848.289155128</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.267395938937663e-06</v>
+        <v>2.244652384121733e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.04027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>2475261.57023165</v>
+        <v>2572435.399804304</v>
       </c>
     </row>
     <row r="8">
@@ -18989,28 +18989,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1926.780509378332</v>
+        <v>2015.023434222595</v>
       </c>
       <c r="AB8" t="n">
-        <v>2636.306096488257</v>
+        <v>2757.043959263268</v>
       </c>
       <c r="AC8" t="n">
-        <v>2384.700742718263</v>
+        <v>2493.915553326681</v>
       </c>
       <c r="AD8" t="n">
-        <v>1926780.509378332</v>
+        <v>2015023.434222595</v>
       </c>
       <c r="AE8" t="n">
-        <v>2636306.096488257</v>
+        <v>2757043.959263268</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.286365673270922e-06</v>
+        <v>2.278249193208084e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.7875</v>
       </c>
       <c r="AH8" t="n">
-        <v>2384700.742718263</v>
+        <v>2493915.553326681</v>
       </c>
     </row>
     <row r="9">
@@ -19095,28 +19095,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1875.887362705547</v>
+        <v>1964.13028754981</v>
       </c>
       <c r="AB9" t="n">
-        <v>2566.671847963384</v>
+        <v>2687.409710738395</v>
       </c>
       <c r="AC9" t="n">
-        <v>2321.712289140321</v>
+        <v>2430.927099748739</v>
       </c>
       <c r="AD9" t="n">
-        <v>1875887.362705547</v>
+        <v>1964130.28754981</v>
       </c>
       <c r="AE9" t="n">
-        <v>2566671.847963384</v>
+        <v>2687409.710738394</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.300359739582342e-06</v>
+        <v>2.303033724501295e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.60694444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>2321712.289140321</v>
+        <v>2430927.099748739</v>
       </c>
     </row>
     <row r="10">
@@ -19201,28 +19201,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1830.640259683072</v>
+        <v>1909.069022291571</v>
       </c>
       <c r="AB10" t="n">
-        <v>2504.76276544673</v>
+        <v>2612.072458480488</v>
       </c>
       <c r="AC10" t="n">
-        <v>2265.711722569114</v>
+        <v>2362.77992910983</v>
       </c>
       <c r="AD10" t="n">
-        <v>1830640.259683072</v>
+        <v>1909069.022291571</v>
       </c>
       <c r="AE10" t="n">
-        <v>2504762.765446729</v>
+        <v>2612072.458480488</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.311554992631479e-06</v>
+        <v>2.322861349535863e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.46666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2265711.722569114</v>
+        <v>2362779.92910983</v>
       </c>
     </row>
     <row r="11">
@@ -19307,28 +19307,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1792.979202860678</v>
+        <v>1871.407965469177</v>
       </c>
       <c r="AB11" t="n">
-        <v>2453.233246013766</v>
+        <v>2560.542939047524</v>
       </c>
       <c r="AC11" t="n">
-        <v>2219.100108148697</v>
+        <v>2316.168314689413</v>
       </c>
       <c r="AD11" t="n">
-        <v>1792979.202860678</v>
+        <v>1871407.965469178</v>
       </c>
       <c r="AE11" t="n">
-        <v>2453233.246013766</v>
+        <v>2560542.939047524</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.319951432418331e-06</v>
+        <v>2.337732068311789e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.36111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>2219100.108148697</v>
+        <v>2316168.314689413</v>
       </c>
     </row>
     <row r="12">
@@ -19413,28 +19413,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1756.758083658127</v>
+        <v>1835.186846266627</v>
       </c>
       <c r="AB12" t="n">
-        <v>2403.673912757835</v>
+        <v>2510.983605791593</v>
       </c>
       <c r="AC12" t="n">
-        <v>2174.270648101751</v>
+        <v>2271.338854642468</v>
       </c>
       <c r="AD12" t="n">
-        <v>1756758.083658127</v>
+        <v>1835186.846266627</v>
       </c>
       <c r="AE12" t="n">
-        <v>2403673.912757835</v>
+        <v>2510983.605791593</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.327259444825407e-06</v>
+        <v>2.350675101320465e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.27222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>2174270.648101751</v>
+        <v>2271338.854642468</v>
       </c>
     </row>
     <row r="13">
@@ -19519,28 +19519,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1720.786065046167</v>
+        <v>1799.214827654666</v>
       </c>
       <c r="AB13" t="n">
-        <v>2354.455409919493</v>
+        <v>2461.76510295325</v>
       </c>
       <c r="AC13" t="n">
-        <v>2129.749490095698</v>
+        <v>2226.817696636414</v>
       </c>
       <c r="AD13" t="n">
-        <v>1720786.065046167</v>
+        <v>1799214.827654666</v>
       </c>
       <c r="AE13" t="n">
-        <v>2354455.409919493</v>
+        <v>2461765.102953251</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.333945498729752e-06</v>
+        <v>2.362516599604999e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.19027777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>2129749.490095698</v>
+        <v>2226817.696636414</v>
       </c>
     </row>
     <row r="14">
@@ -19625,28 +19625,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1690.208104842715</v>
+        <v>1768.636867451214</v>
       </c>
       <c r="AB14" t="n">
-        <v>2312.617295764733</v>
+        <v>2419.926988798491</v>
       </c>
       <c r="AC14" t="n">
-        <v>2091.904346835707</v>
+        <v>2188.972553376423</v>
       </c>
       <c r="AD14" t="n">
-        <v>1690208.104842715</v>
+        <v>1768636.867451214</v>
       </c>
       <c r="AE14" t="n">
-        <v>2312617.295764733</v>
+        <v>2419926.988798491</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.339076656377273e-06</v>
+        <v>2.371604261079176e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.12777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>2091904.346835707</v>
+        <v>2188972.553376423</v>
       </c>
     </row>
     <row r="15">
@@ -19731,28 +19731,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1684.455543899975</v>
+        <v>1762.884306508474</v>
       </c>
       <c r="AB15" t="n">
-        <v>2304.746388097798</v>
+        <v>2412.056081131556</v>
       </c>
       <c r="AC15" t="n">
-        <v>2084.784627549616</v>
+        <v>2181.852834090332</v>
       </c>
       <c r="AD15" t="n">
-        <v>1684455.543899975</v>
+        <v>1762884.306508474</v>
       </c>
       <c r="AE15" t="n">
-        <v>2304746.388097798</v>
+        <v>2412056.081131557</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.340009594131368e-06</v>
+        <v>2.37325656316539e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.11527777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>2084784.627549616</v>
+        <v>2181852.834090332</v>
       </c>
     </row>
     <row r="16">
@@ -19837,28 +19837,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1692.57754274112</v>
+        <v>1771.006305349619</v>
       </c>
       <c r="AB16" t="n">
-        <v>2315.859265229553</v>
+        <v>2423.168958263311</v>
       </c>
       <c r="AC16" t="n">
-        <v>2094.836907284937</v>
+        <v>2191.905113825653</v>
       </c>
       <c r="AD16" t="n">
-        <v>1692577.54274112</v>
+        <v>1771006.305349619</v>
       </c>
       <c r="AE16" t="n">
-        <v>2315859.265229553</v>
+        <v>2423168.958263311</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.339854104505685e-06</v>
+        <v>2.372981179484355e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.11805555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>2094836.907284937</v>
+        <v>2191905.113825653</v>
       </c>
     </row>
   </sheetData>
@@ -20134,28 +20134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7296.064600877089</v>
+        <v>7476.01871051138</v>
       </c>
       <c r="AB2" t="n">
-        <v>9982.797466573671</v>
+        <v>10229.01861839033</v>
       </c>
       <c r="AC2" t="n">
-        <v>9030.053287307741</v>
+        <v>9252.775437968567</v>
       </c>
       <c r="AD2" t="n">
-        <v>7296064.600877089</v>
+        <v>7476018.71051138</v>
       </c>
       <c r="AE2" t="n">
-        <v>9982797.466573671</v>
+        <v>10229018.61839033</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.115283043036605e-07</v>
+        <v>1.06645196454061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.60138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>9030053.287307741</v>
+        <v>9252775.437968567</v>
       </c>
     </row>
     <row r="3">
@@ -20240,28 +20240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3333.943214030117</v>
+        <v>3453.798832646881</v>
       </c>
       <c r="AB3" t="n">
-        <v>4561.64818863026</v>
+        <v>4725.639933678434</v>
       </c>
       <c r="AC3" t="n">
-        <v>4126.290887820658</v>
+        <v>4274.631490885289</v>
       </c>
       <c r="AD3" t="n">
-        <v>3333943.214030117</v>
+        <v>3453798.832646881</v>
       </c>
       <c r="AE3" t="n">
-        <v>4561648.18863026</v>
+        <v>4725639.933678434</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.629971129804282e-07</v>
+        <v>1.679382876896162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.97361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>4126290.887820658</v>
+        <v>4274631.490885289</v>
       </c>
     </row>
     <row r="4">
@@ -20346,28 +20346,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2713.585127260135</v>
+        <v>2813.436451997799</v>
       </c>
       <c r="AB4" t="n">
-        <v>3712.846886044288</v>
+        <v>3849.467873679917</v>
       </c>
       <c r="AC4" t="n">
-        <v>3358.497990253414</v>
+        <v>3482.080062577854</v>
       </c>
       <c r="AD4" t="n">
-        <v>2713585.127260135</v>
+        <v>2813436.451997799</v>
       </c>
       <c r="AE4" t="n">
-        <v>3712846.886044288</v>
+        <v>3849467.873679917</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.089446662699421e-06</v>
+        <v>1.899899850132013e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.42222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>3358497.990253414</v>
+        <v>3482080.062577854</v>
       </c>
     </row>
     <row r="5">
@@ -20452,28 +20452,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2451.416011943597</v>
+        <v>2541.350485842007</v>
       </c>
       <c r="AB5" t="n">
-        <v>3354.135536383106</v>
+        <v>3477.187851199885</v>
       </c>
       <c r="AC5" t="n">
-        <v>3034.021548349367</v>
+        <v>3145.329922945037</v>
       </c>
       <c r="AD5" t="n">
-        <v>2451416.011943597</v>
+        <v>2541350.485842007</v>
       </c>
       <c r="AE5" t="n">
-        <v>3354135.536383106</v>
+        <v>3477187.851199885</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.155870763515663e-06</v>
+        <v>2.015737681855906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.30555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>3034021.548349367</v>
+        <v>3145329.922945037</v>
       </c>
     </row>
     <row r="6">
@@ -20558,28 +20558,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2299.870715787742</v>
+        <v>2389.890441032172</v>
       </c>
       <c r="AB6" t="n">
-        <v>3146.78457647604</v>
+        <v>3269.953535945468</v>
       </c>
       <c r="AC6" t="n">
-        <v>2846.459873036939</v>
+        <v>2957.873759883321</v>
       </c>
       <c r="AD6" t="n">
-        <v>2299870.715787741</v>
+        <v>2389890.441032172</v>
       </c>
       <c r="AE6" t="n">
-        <v>3146784.576476039</v>
+        <v>3269953.535945468</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.196547907822857e-06</v>
+        <v>2.086675069631776e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.68472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>2846459.873036939</v>
+        <v>2957873.759883321</v>
       </c>
     </row>
     <row r="7">
@@ -20664,28 +20664,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2202.459402934167</v>
+        <v>2292.308535978006</v>
       </c>
       <c r="AB7" t="n">
-        <v>3013.50212074595</v>
+        <v>3136.437668440531</v>
       </c>
       <c r="AC7" t="n">
-        <v>2725.897707818633</v>
+        <v>2837.100459382363</v>
       </c>
       <c r="AD7" t="n">
-        <v>2202459.402934167</v>
+        <v>2292308.535978006</v>
       </c>
       <c r="AE7" t="n">
-        <v>3013502.12074595</v>
+        <v>3136437.668440531</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.225189492578485e-06</v>
+        <v>2.136623492485198e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.27083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2725897.707818632</v>
+        <v>2837100.459382363</v>
       </c>
     </row>
     <row r="8">
@@ -20770,28 +20770,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2135.367931648168</v>
+        <v>2215.385554707326</v>
       </c>
       <c r="AB8" t="n">
-        <v>2921.704609865456</v>
+        <v>3031.188251863556</v>
       </c>
       <c r="AC8" t="n">
-        <v>2642.86122253807</v>
+        <v>2741.895899405015</v>
       </c>
       <c r="AD8" t="n">
-        <v>2135367.931648167</v>
+        <v>2215385.554707326</v>
       </c>
       <c r="AE8" t="n">
-        <v>2921704.609865456</v>
+        <v>3031188.251863556</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.244537797174042e-06</v>
+        <v>2.170365246221286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.00138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2642861.22253807</v>
+        <v>2741895.899405015</v>
       </c>
     </row>
     <row r="9">
@@ -20876,28 +20876,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2069.72321555999</v>
+        <v>2159.657599949849</v>
       </c>
       <c r="AB9" t="n">
-        <v>2831.88661327313</v>
+        <v>2954.938805620354</v>
       </c>
       <c r="AC9" t="n">
-        <v>2561.615329480167</v>
+        <v>2672.923593294608</v>
       </c>
       <c r="AD9" t="n">
-        <v>2069723.21555999</v>
+        <v>2159657.599949849</v>
       </c>
       <c r="AE9" t="n">
-        <v>2831886.61327313</v>
+        <v>2954938.805620354</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.259925031537437e-06</v>
+        <v>2.197199239349986e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.79305555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>2561615.329480167</v>
+        <v>2672923.593294607</v>
       </c>
     </row>
     <row r="10">
@@ -20982,28 +20982,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2023.383419105974</v>
+        <v>2113.317803495833</v>
       </c>
       <c r="AB10" t="n">
-        <v>2768.48245939721</v>
+        <v>2891.534651744433</v>
       </c>
       <c r="AC10" t="n">
-        <v>2504.262379061875</v>
+        <v>2615.570642876316</v>
       </c>
       <c r="AD10" t="n">
-        <v>2023383.419105974</v>
+        <v>2113317.803495833</v>
       </c>
       <c r="AE10" t="n">
-        <v>2768482.45939721</v>
+        <v>2891534.651744433</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.271960591089004e-06</v>
+        <v>2.218188204272434e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.63472222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>2504262.379061875</v>
+        <v>2615570.642876316</v>
       </c>
     </row>
     <row r="11">
@@ -21088,28 +21088,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1986.271496226389</v>
+        <v>2076.205880616248</v>
       </c>
       <c r="AB11" t="n">
-        <v>2717.704289250876</v>
+        <v>2840.7564815981</v>
       </c>
       <c r="AC11" t="n">
-        <v>2458.330406206698</v>
+        <v>2569.638670021139</v>
       </c>
       <c r="AD11" t="n">
-        <v>1986271.496226389</v>
+        <v>2076205.880616248</v>
       </c>
       <c r="AE11" t="n">
-        <v>2717704.289250876</v>
+        <v>2840756.4815981</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.280644475828742e-06</v>
+        <v>2.233332140988631e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.52222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>2458330.406206698</v>
+        <v>2569638.670021139</v>
       </c>
     </row>
     <row r="12">
@@ -21194,28 +21194,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1950.394223517373</v>
+        <v>2030.326505721958</v>
       </c>
       <c r="AB12" t="n">
-        <v>2668.615421936838</v>
+        <v>2777.982296812563</v>
       </c>
       <c r="AC12" t="n">
-        <v>2413.926511492454</v>
+        <v>2512.855565327413</v>
       </c>
       <c r="AD12" t="n">
-        <v>1950394.223517373</v>
+        <v>2030326.505721958</v>
       </c>
       <c r="AE12" t="n">
-        <v>2668615.421936838</v>
+        <v>2777982.296812563</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.289176011713397e-06</v>
+        <v>2.248210394604544e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.4125</v>
       </c>
       <c r="AH12" t="n">
-        <v>2413926.511492454</v>
+        <v>2512855.565327413</v>
       </c>
     </row>
     <row r="13">
@@ -21300,28 +21300,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1918.116098513798</v>
+        <v>1998.048380718383</v>
       </c>
       <c r="AB13" t="n">
-        <v>2624.451067296573</v>
+        <v>2733.817942172297</v>
       </c>
       <c r="AC13" t="n">
-        <v>2373.977140873994</v>
+        <v>2472.906194708953</v>
       </c>
       <c r="AD13" t="n">
-        <v>1918116.098513798</v>
+        <v>1998048.380718383</v>
       </c>
       <c r="AE13" t="n">
-        <v>2624451.067296572</v>
+        <v>2733817.942172297</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.296031710192138e-06</v>
+        <v>2.260166134117332e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.325</v>
       </c>
       <c r="AH13" t="n">
-        <v>2373977.140873994</v>
+        <v>2472906.194708953</v>
       </c>
     </row>
     <row r="14">
@@ -21406,28 +21406,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1887.036793878147</v>
+        <v>1966.969076082732</v>
       </c>
       <c r="AB14" t="n">
-        <v>2581.926991571924</v>
+        <v>2691.293866447649</v>
       </c>
       <c r="AC14" t="n">
-        <v>2335.511503253591</v>
+        <v>2434.44055708855</v>
       </c>
       <c r="AD14" t="n">
-        <v>1887036.793878147</v>
+        <v>1966969.076082732</v>
       </c>
       <c r="AE14" t="n">
-        <v>2581926.991571924</v>
+        <v>2691293.866447648</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.301820966685296e-06</v>
+        <v>2.270262091928129e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.25416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2335511.503253591</v>
+        <v>2434440.55708855</v>
       </c>
     </row>
     <row r="15">
@@ -21512,28 +21512,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1860.491126810855</v>
+        <v>1940.42340901544</v>
       </c>
       <c r="AB15" t="n">
-        <v>2545.606038778277</v>
+        <v>2654.972913654002</v>
       </c>
       <c r="AC15" t="n">
-        <v>2302.656971217792</v>
+        <v>2401.586025052751</v>
       </c>
       <c r="AD15" t="n">
-        <v>1860491.126810855</v>
+        <v>1940423.40901544</v>
       </c>
       <c r="AE15" t="n">
-        <v>2545606.038778277</v>
+        <v>2654972.913654002</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.305934385772541e-06</v>
+        <v>2.277435535635802e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.20277777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>2302656.971217792</v>
+        <v>2401586.025052751</v>
       </c>
     </row>
     <row r="16">
@@ -21618,28 +21618,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1831.843999710212</v>
+        <v>1911.776281914797</v>
       </c>
       <c r="AB16" t="n">
-        <v>2506.409775657125</v>
+        <v>2615.77665053285</v>
       </c>
       <c r="AC16" t="n">
-        <v>2267.201544436622</v>
+        <v>2366.130598271581</v>
       </c>
       <c r="AD16" t="n">
-        <v>1831843.999710212</v>
+        <v>1911776.281914797</v>
       </c>
       <c r="AE16" t="n">
-        <v>2506409.775657125</v>
+        <v>2615776.65053285</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.310352502569951e-06</v>
+        <v>2.285140345544042e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.14861111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>2267201.544436622</v>
+        <v>2366130.598271581</v>
       </c>
     </row>
     <row r="17">
@@ -21724,28 +21724,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1802.239213391227</v>
+        <v>1882.171495595811</v>
       </c>
       <c r="AB17" t="n">
-        <v>2465.903200944495</v>
+        <v>2575.27007582022</v>
       </c>
       <c r="AC17" t="n">
-        <v>2230.56086036323</v>
+        <v>2329.48991419819</v>
       </c>
       <c r="AD17" t="n">
-        <v>1802239.213391227</v>
+        <v>1882171.495595811</v>
       </c>
       <c r="AE17" t="n">
-        <v>2465903.200944495</v>
+        <v>2575270.07582022</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.314770619367362e-06</v>
+        <v>2.292845155452283e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.09444444444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>2230560.860363231</v>
+        <v>2329489.91419819</v>
       </c>
     </row>
     <row r="18">
@@ -21830,28 +21830,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1793.545915385387</v>
+        <v>1873.478197589972</v>
       </c>
       <c r="AB18" t="n">
-        <v>2454.008647091665</v>
+        <v>2563.37552196739</v>
       </c>
       <c r="AC18" t="n">
-        <v>2219.801506036004</v>
+        <v>2318.730559870963</v>
       </c>
       <c r="AD18" t="n">
-        <v>1793545.915385387</v>
+        <v>1873478.197589972</v>
       </c>
       <c r="AE18" t="n">
-        <v>2454008.647091665</v>
+        <v>2563375.52196739</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.315837061352944e-06</v>
+        <v>2.294704937154272e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.08055555555556</v>
       </c>
       <c r="AH18" t="n">
-        <v>2219801.506036004</v>
+        <v>2318730.559870963</v>
       </c>
     </row>
     <row r="19">
@@ -21936,28 +21936,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1799.859415503455</v>
+        <v>1879.79169770804</v>
       </c>
       <c r="AB19" t="n">
-        <v>2462.647056485173</v>
+        <v>2572.013931360898</v>
       </c>
       <c r="AC19" t="n">
-        <v>2227.615477761079</v>
+        <v>2326.544531596038</v>
       </c>
       <c r="AD19" t="n">
-        <v>1799859.415503455</v>
+        <v>1879791.69770804</v>
       </c>
       <c r="AE19" t="n">
-        <v>2462647.056485173</v>
+        <v>2572013.931360898</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.315532363642778e-06</v>
+        <v>2.294173570953704e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.08333333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2227615.477761079</v>
+        <v>2326544.531596038</v>
       </c>
     </row>
   </sheetData>
@@ -22233,28 +22233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11936.24955766886</v>
+        <v>12163.67291479354</v>
       </c>
       <c r="AB2" t="n">
-        <v>16331.70323496908</v>
+        <v>16642.8739053975</v>
       </c>
       <c r="AC2" t="n">
-        <v>14773.02839991247</v>
+        <v>15054.50137828597</v>
       </c>
       <c r="AD2" t="n">
-        <v>11936249.55766886</v>
+        <v>12163672.91479354</v>
       </c>
       <c r="AE2" t="n">
-        <v>16331703.23496908</v>
+        <v>16642873.9053975</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.692385694302956e-07</v>
+        <v>7.976744685983443e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.52638888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>14773028.39991247</v>
+        <v>15054501.37828597</v>
       </c>
     </row>
     <row r="3">
@@ -22339,28 +22339,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4258.848946698556</v>
+        <v>4393.064794199455</v>
       </c>
       <c r="AB3" t="n">
-        <v>5827.145016028415</v>
+        <v>6010.78505976445</v>
       </c>
       <c r="AC3" t="n">
-        <v>5271.01047414784</v>
+        <v>5437.124169850119</v>
       </c>
       <c r="AD3" t="n">
-        <v>4258848.946698556</v>
+        <v>4393064.794199455</v>
       </c>
       <c r="AE3" t="n">
-        <v>5827145.016028414</v>
+        <v>6010785.05976445</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.528936705408069e-07</v>
+        <v>1.449862713215417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.94722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>5271010.474147839</v>
+        <v>5437124.169850119</v>
       </c>
     </row>
     <row r="4">
@@ -22445,28 +22445,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3319.588251288935</v>
+        <v>3433.214588996706</v>
       </c>
       <c r="AB4" t="n">
-        <v>4542.007095311512</v>
+        <v>4697.475663403525</v>
       </c>
       <c r="AC4" t="n">
-        <v>4108.524312881806</v>
+        <v>4249.155179036617</v>
       </c>
       <c r="AD4" t="n">
-        <v>3319588.251288935</v>
+        <v>3433214.588996707</v>
       </c>
       <c r="AE4" t="n">
-        <v>4542007.095311512</v>
+        <v>4697475.663403525</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.934740755471881e-07</v>
+        <v>1.688840084566096e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.55833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4108524.312881806</v>
+        <v>4249155.179036617</v>
       </c>
     </row>
     <row r="5">
@@ -22551,28 +22551,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2944.776293015206</v>
+        <v>3037.813210438402</v>
       </c>
       <c r="AB5" t="n">
-        <v>4029.172838464788</v>
+        <v>4156.470053382327</v>
       </c>
       <c r="AC5" t="n">
-        <v>3644.634237741152</v>
+        <v>3759.782385129719</v>
       </c>
       <c r="AD5" t="n">
-        <v>2944776.293015206</v>
+        <v>3037813.210438402</v>
       </c>
       <c r="AE5" t="n">
-        <v>4029172.838464788</v>
+        <v>4156470.053382327</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.069646303364453e-06</v>
+        <v>1.818327823436025e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.09583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3644634.237741152</v>
+        <v>3759782.385129719</v>
       </c>
     </row>
     <row r="6">
@@ -22657,28 +22657,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2742.822316712199</v>
+        <v>2835.773893280823</v>
       </c>
       <c r="AB6" t="n">
-        <v>3752.850498506371</v>
+        <v>3880.030946301712</v>
       </c>
       <c r="AC6" t="n">
-        <v>3394.683714087536</v>
+        <v>3509.726238444165</v>
       </c>
       <c r="AD6" t="n">
-        <v>2742822.316712199</v>
+        <v>2835773.893280823</v>
       </c>
       <c r="AE6" t="n">
-        <v>3752850.49850637</v>
+        <v>3880030.946301712</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.115673151447087e-06</v>
+        <v>1.896570414683685e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.30555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>3394683.714087536</v>
+        <v>3509726.238444165</v>
       </c>
     </row>
     <row r="7">
@@ -22763,28 +22763,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2606.393450863963</v>
+        <v>2699.430278778607</v>
       </c>
       <c r="AB7" t="n">
-        <v>3566.182505436028</v>
+        <v>3693.479597884019</v>
       </c>
       <c r="AC7" t="n">
-        <v>3225.831052285661</v>
+        <v>3340.979088893002</v>
       </c>
       <c r="AD7" t="n">
-        <v>2606393.450863963</v>
+        <v>2699430.278778607</v>
       </c>
       <c r="AE7" t="n">
-        <v>3566182.505436028</v>
+        <v>3693479.597884019</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.148024290674496e-06</v>
+        <v>1.951565207253925e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.79166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3225831.052285661</v>
+        <v>3340979.088893001</v>
       </c>
     </row>
     <row r="8">
@@ -22869,28 +22869,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2518.83108591512</v>
+        <v>2611.697321629173</v>
       </c>
       <c r="AB8" t="n">
-        <v>3446.375814734109</v>
+        <v>3573.439495407252</v>
       </c>
       <c r="AC8" t="n">
-        <v>3117.458543994591</v>
+        <v>3232.39544531928</v>
       </c>
       <c r="AD8" t="n">
-        <v>2518831.08591512</v>
+        <v>2611697.321629173</v>
       </c>
       <c r="AE8" t="n">
-        <v>3446375.814734109</v>
+        <v>3573439.495407252</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.170964189399387e-06</v>
+        <v>1.990561514712822e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.44166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3117458.543994591</v>
+        <v>3232395.44531928</v>
       </c>
     </row>
     <row r="9">
@@ -22975,28 +22975,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2455.16586886961</v>
+        <v>2548.032104583662</v>
       </c>
       <c r="AB9" t="n">
-        <v>3359.26625606129</v>
+        <v>3486.329936734433</v>
       </c>
       <c r="AC9" t="n">
-        <v>3038.662599342475</v>
+        <v>3153.599500667166</v>
       </c>
       <c r="AD9" t="n">
-        <v>2455165.86886961</v>
+        <v>2548032.104583662</v>
       </c>
       <c r="AE9" t="n">
-        <v>3359266.25606129</v>
+        <v>3486329.936734433</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.187875012177351e-06</v>
+        <v>2.019308792647266e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.19305555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>3038662.599342475</v>
+        <v>3153599.500667165</v>
       </c>
     </row>
     <row r="10">
@@ -23081,28 +23081,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2387.864561280558</v>
+        <v>2480.81604834063</v>
       </c>
       <c r="AB10" t="n">
-        <v>3267.181637893801</v>
+        <v>3394.361963219594</v>
       </c>
       <c r="AC10" t="n">
-        <v>2955.366407891322</v>
+        <v>3070.408821466724</v>
       </c>
       <c r="AD10" t="n">
-        <v>2387864.561280557</v>
+        <v>2480816.04834063</v>
       </c>
       <c r="AE10" t="n">
-        <v>3267181.637893801</v>
+        <v>3394361.963219594</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.202580075462538e-06</v>
+        <v>2.044306425633739e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.98333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2955366.407891322</v>
+        <v>3070408.821466724</v>
       </c>
     </row>
     <row r="11">
@@ -23187,28 +23187,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2343.492763779734</v>
+        <v>2436.444250839807</v>
       </c>
       <c r="AB11" t="n">
-        <v>3206.470187007622</v>
+        <v>3333.650512333415</v>
       </c>
       <c r="AC11" t="n">
-        <v>2900.449172668666</v>
+        <v>3015.491586244068</v>
       </c>
       <c r="AD11" t="n">
-        <v>2343492.763779734</v>
+        <v>2436444.250839807</v>
       </c>
       <c r="AE11" t="n">
-        <v>3206470.187007622</v>
+        <v>3333650.512333415</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.214050024824983e-06</v>
+        <v>2.063804579363187e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.82222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>2900449.172668666</v>
+        <v>3015491.586244068</v>
       </c>
     </row>
     <row r="12">
@@ -23293,28 +23293,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2307.320674635843</v>
+        <v>2400.272161695916</v>
       </c>
       <c r="AB12" t="n">
-        <v>3156.977938841001</v>
+        <v>3284.158264166794</v>
       </c>
       <c r="AC12" t="n">
-        <v>2855.680395204262</v>
+        <v>2970.722808779665</v>
       </c>
       <c r="AD12" t="n">
-        <v>2307320.674635843</v>
+        <v>2400272.161695916</v>
       </c>
       <c r="AE12" t="n">
-        <v>3156977.938841001</v>
+        <v>3284158.264166794</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.222873062796095e-06</v>
+        <v>2.078803159155071e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>2855680.395204262</v>
+        <v>2970722.808779665</v>
       </c>
     </row>
     <row r="13">
@@ -23399,28 +23399,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2273.890446003049</v>
+        <v>2366.841933063122</v>
       </c>
       <c r="AB13" t="n">
-        <v>3111.237225188011</v>
+        <v>3238.417550513804</v>
       </c>
       <c r="AC13" t="n">
-        <v>2814.305111064821</v>
+        <v>2929.347524640223</v>
       </c>
       <c r="AD13" t="n">
-        <v>2273890.446003049</v>
+        <v>2366841.933063122</v>
       </c>
       <c r="AE13" t="n">
-        <v>3111237.225188011</v>
+        <v>3238417.550513804</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.230666746337244e-06</v>
+        <v>2.092051904637901e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.59583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2814305.111064821</v>
+        <v>2929347.524640223</v>
       </c>
     </row>
     <row r="14">
@@ -23505,28 +23505,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2247.449551702906</v>
+        <v>2340.401038762979</v>
       </c>
       <c r="AB14" t="n">
-        <v>3075.059627116624</v>
+        <v>3202.239952442417</v>
       </c>
       <c r="AC14" t="n">
-        <v>2781.58025217779</v>
+        <v>2896.622665753192</v>
       </c>
       <c r="AD14" t="n">
-        <v>2247449.551702906</v>
+        <v>2340401.038762979</v>
       </c>
       <c r="AE14" t="n">
-        <v>3075059.627116624</v>
+        <v>3202239.952442417</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.236401721018466e-06</v>
+        <v>2.101800981502626e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.51944444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>2781580.25217779</v>
+        <v>2896622.665753192</v>
       </c>
     </row>
     <row r="15">
@@ -23611,28 +23611,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2216.081878340413</v>
+        <v>2298.696029585188</v>
       </c>
       <c r="AB15" t="n">
-        <v>3032.140992577976</v>
+        <v>3145.177318990208</v>
       </c>
       <c r="AC15" t="n">
-        <v>2742.757711882832</v>
+        <v>2845.006009949755</v>
       </c>
       <c r="AD15" t="n">
-        <v>2216081.878340413</v>
+        <v>2298696.029585188</v>
       </c>
       <c r="AE15" t="n">
-        <v>3032140.992577976</v>
+        <v>3145177.318990208</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.2430189994968e-06</v>
+        <v>2.113049916346539e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.43055555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>2742757.711882832</v>
+        <v>2845006.009949755</v>
       </c>
     </row>
     <row r="16">
@@ -23717,28 +23717,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2194.572882477203</v>
+        <v>2277.187033721978</v>
       </c>
       <c r="AB16" t="n">
-        <v>3002.711435528003</v>
+        <v>3115.747761940234</v>
       </c>
       <c r="AC16" t="n">
-        <v>2716.136870453066</v>
+        <v>2818.38516851999</v>
       </c>
       <c r="AD16" t="n">
-        <v>2194572.882477203</v>
+        <v>2277187.033721977</v>
       </c>
       <c r="AE16" t="n">
-        <v>3002711.435528003</v>
+        <v>3115747.761940234</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.247136417216652e-06</v>
+        <v>2.120049253582751e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.37638888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>2716136.870453066</v>
+        <v>2818385.16851999</v>
       </c>
     </row>
     <row r="17">
@@ -23823,28 +23823,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2173.410100094982</v>
+        <v>2256.024251339759</v>
       </c>
       <c r="AB17" t="n">
-        <v>2973.75558303641</v>
+        <v>3086.791909448816</v>
       </c>
       <c r="AC17" t="n">
-        <v>2689.94452388359</v>
+        <v>2792.192821950559</v>
       </c>
       <c r="AD17" t="n">
-        <v>2173410.100094982</v>
+        <v>2256024.251339759</v>
       </c>
       <c r="AE17" t="n">
-        <v>2973755.58303641</v>
+        <v>3086791.909448816</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.251253834936504e-06</v>
+        <v>2.127048590818963e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.32361111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>2689944.52388359</v>
+        <v>2792192.821950559</v>
       </c>
     </row>
     <row r="18">
@@ -23929,28 +23929,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2148.239678697313</v>
+        <v>2230.85382994209</v>
       </c>
       <c r="AB18" t="n">
-        <v>2939.316302039499</v>
+        <v>3052.352628451902</v>
       </c>
       <c r="AC18" t="n">
-        <v>2658.792079529188</v>
+        <v>2761.040377596157</v>
       </c>
       <c r="AD18" t="n">
-        <v>2148239.678697313</v>
+        <v>2230853.82994209</v>
       </c>
       <c r="AE18" t="n">
-        <v>2939316.302039498</v>
+        <v>3052352.628451902</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.255077151390653e-06</v>
+        <v>2.133547975395446e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.27222222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>2658792.079529188</v>
+        <v>2761040.377596157</v>
       </c>
     </row>
     <row r="19">
@@ -24035,28 +24035,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2128.482930880837</v>
+        <v>2211.097082125613</v>
       </c>
       <c r="AB19" t="n">
-        <v>2912.284248070797</v>
+        <v>3025.320574483198</v>
       </c>
       <c r="AC19" t="n">
-        <v>2634.339926851533</v>
+        <v>2736.588224918502</v>
       </c>
       <c r="AD19" t="n">
-        <v>2128482.930880837</v>
+        <v>2211097.082125613</v>
       </c>
       <c r="AE19" t="n">
-        <v>2912284.248070797</v>
+        <v>3025320.574483199</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.258606366579097e-06</v>
+        <v>2.1395474073122e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.22777777777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>2634339.926851533</v>
+        <v>2736588.224918502</v>
       </c>
     </row>
     <row r="20">
@@ -24141,28 +24141,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2106.748691086172</v>
+        <v>2189.362842330946</v>
       </c>
       <c r="AB20" t="n">
-        <v>2882.546502336749</v>
+        <v>2995.582828748973</v>
       </c>
       <c r="AC20" t="n">
-        <v>2607.440309833155</v>
+        <v>2709.688607900077</v>
       </c>
       <c r="AD20" t="n">
-        <v>2106748.691086172</v>
+        <v>2189362.842330946</v>
       </c>
       <c r="AE20" t="n">
-        <v>2882546.502336749</v>
+        <v>2995582.828748973</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.262282632400394e-06</v>
+        <v>2.145796815558818e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>2607440.309833155</v>
+        <v>2709688.607900077</v>
       </c>
     </row>
     <row r="21">
@@ -24247,28 +24247,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2087.789655838169</v>
+        <v>2170.403807082943</v>
       </c>
       <c r="AB21" t="n">
-        <v>2856.605913896828</v>
+        <v>2969.642240309052</v>
       </c>
       <c r="AC21" t="n">
-        <v>2583.975454746094</v>
+        <v>2686.223752813017</v>
       </c>
       <c r="AD21" t="n">
-        <v>2087789.655838169</v>
+        <v>2170403.807082943</v>
       </c>
       <c r="AE21" t="n">
-        <v>2856605.913896827</v>
+        <v>2969642.240309052</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.265076594424579e-06</v>
+        <v>2.150546365826248e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.14444444444444</v>
       </c>
       <c r="AH21" t="n">
-        <v>2583975.454746095</v>
+        <v>2686223.752813017</v>
       </c>
     </row>
     <row r="22">
@@ -24353,28 +24353,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2069.954532769543</v>
+        <v>2152.568684014318</v>
       </c>
       <c r="AB22" t="n">
-        <v>2832.203111684236</v>
+        <v>2945.239438096461</v>
       </c>
       <c r="AC22" t="n">
-        <v>2561.901621727125</v>
+        <v>2664.149919794047</v>
       </c>
       <c r="AD22" t="n">
-        <v>2069954.532769543</v>
+        <v>2152568.684014318</v>
       </c>
       <c r="AE22" t="n">
-        <v>2832203.111684236</v>
+        <v>2945239.438096461</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.26669415138595e-06</v>
+        <v>2.15329610545476e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.125</v>
       </c>
       <c r="AH22" t="n">
-        <v>2561901.621727125</v>
+        <v>2664149.919794048</v>
       </c>
     </row>
     <row r="23">
@@ -24459,28 +24459,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2052.481782863811</v>
+        <v>2135.095934108585</v>
       </c>
       <c r="AB23" t="n">
-        <v>2808.29612441989</v>
+        <v>2921.332450832115</v>
       </c>
       <c r="AC23" t="n">
-        <v>2540.276283773621</v>
+        <v>2642.524581840543</v>
       </c>
       <c r="AD23" t="n">
-        <v>2052481.782863811</v>
+        <v>2135095.934108586</v>
       </c>
       <c r="AE23" t="n">
-        <v>2808296.12441989</v>
+        <v>2921332.450832115</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.269635164042987e-06</v>
+        <v>2.158295632052054e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.08611111111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>2540276.283773621</v>
+        <v>2642524.581840543</v>
       </c>
     </row>
     <row r="24">
@@ -24565,28 +24565,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2035.049769804178</v>
+        <v>2117.663921048953</v>
       </c>
       <c r="AB24" t="n">
-        <v>2784.444875105562</v>
+        <v>2897.481201517786</v>
       </c>
       <c r="AC24" t="n">
-        <v>2518.701364218413</v>
+        <v>2620.949662285336</v>
       </c>
       <c r="AD24" t="n">
-        <v>2035049.769804178</v>
+        <v>2117663.921048953</v>
       </c>
       <c r="AE24" t="n">
-        <v>2784444.875105562</v>
+        <v>2897481.201517786</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.271105670371506e-06</v>
+        <v>2.160795395350701e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.06666666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>2518701.364218413</v>
+        <v>2620949.662285336</v>
       </c>
     </row>
     <row r="25">
@@ -24671,28 +24671,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2018.382679463321</v>
+        <v>2100.996830708095</v>
       </c>
       <c r="AB25" t="n">
-        <v>2761.64022680107</v>
+        <v>2874.676553213294</v>
       </c>
       <c r="AC25" t="n">
-        <v>2498.073159541577</v>
+        <v>2600.3214576085</v>
       </c>
       <c r="AD25" t="n">
-        <v>2018382.679463321</v>
+        <v>2100996.830708095</v>
       </c>
       <c r="AE25" t="n">
-        <v>2761640.22680107</v>
+        <v>2874676.553213294</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.273164379231432e-06</v>
+        <v>2.164295063968808e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.04027777777777</v>
       </c>
       <c r="AH25" t="n">
-        <v>2498073.159541577</v>
+        <v>2600321.4576085</v>
       </c>
     </row>
     <row r="26">
@@ -24777,28 +24777,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2016.198344848432</v>
+        <v>2098.812496093206</v>
       </c>
       <c r="AB26" t="n">
-        <v>2758.651523814937</v>
+        <v>2871.687850227161</v>
       </c>
       <c r="AC26" t="n">
-        <v>2495.369694173769</v>
+        <v>2597.617992240692</v>
       </c>
       <c r="AD26" t="n">
-        <v>2016198.344848432</v>
+        <v>2098812.496093207</v>
       </c>
       <c r="AE26" t="n">
-        <v>2758651.523814937</v>
+        <v>2871687.850227161</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.273752581762839e-06</v>
+        <v>2.165294969288266e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>16.03333333333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>2495369.69417377</v>
+        <v>2597617.992240692</v>
       </c>
     </row>
     <row r="27">
@@ -24883,28 +24883,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2023.275508643129</v>
+        <v>2105.889659887903</v>
       </c>
       <c r="AB27" t="n">
-        <v>2768.334811541272</v>
+        <v>2881.371137953497</v>
       </c>
       <c r="AC27" t="n">
-        <v>2504.128822510084</v>
+        <v>2606.377120577006</v>
       </c>
       <c r="AD27" t="n">
-        <v>2023275.508643129</v>
+        <v>2105889.659887903</v>
       </c>
       <c r="AE27" t="n">
-        <v>2768334.811541272</v>
+        <v>2881371.137953497</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.273458480497136e-06</v>
+        <v>2.164795016628537e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16.0375</v>
       </c>
       <c r="AH27" t="n">
-        <v>2504128.822510084</v>
+        <v>2606377.120577006</v>
       </c>
     </row>
     <row r="28">
@@ -24989,28 +24989,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2031.670955115943</v>
+        <v>2114.285106360717</v>
       </c>
       <c r="AB28" t="n">
-        <v>2779.821831786334</v>
+        <v>2892.858158198559</v>
       </c>
       <c r="AC28" t="n">
-        <v>2514.51953766509</v>
+        <v>2616.767835732013</v>
       </c>
       <c r="AD28" t="n">
-        <v>2031670.955115943</v>
+        <v>2114285.106360717</v>
       </c>
       <c r="AE28" t="n">
-        <v>2779821.831786334</v>
+        <v>2892858.158198559</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.273458480497136e-06</v>
+        <v>2.164795016628537e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>16.0375</v>
       </c>
       <c r="AH28" t="n">
-        <v>2514519.537665091</v>
+        <v>2616767.835732013</v>
       </c>
     </row>
   </sheetData>
@@ -25286,28 +25286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4536.446737266849</v>
+        <v>4670.875534976984</v>
       </c>
       <c r="AB2" t="n">
-        <v>6206.966559834164</v>
+        <v>6390.897971441179</v>
       </c>
       <c r="AC2" t="n">
-        <v>5614.582382895638</v>
+        <v>5780.959638728227</v>
       </c>
       <c r="AD2" t="n">
-        <v>4536446.737266849</v>
+        <v>4670875.534976984</v>
       </c>
       <c r="AE2" t="n">
-        <v>6206966.559834165</v>
+        <v>6390897.971441179</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.82386378339255e-07</v>
+        <v>1.410827784013234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.23888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>5614582.382895638</v>
+        <v>5780959.638728227</v>
       </c>
     </row>
     <row r="3">
@@ -25392,28 +25392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2537.588130594963</v>
+        <v>2633.584342860483</v>
       </c>
       <c r="AB3" t="n">
-        <v>3472.04003076748</v>
+        <v>3603.386283443162</v>
       </c>
       <c r="AC3" t="n">
-        <v>3140.67340326969</v>
+        <v>3259.484153935623</v>
       </c>
       <c r="AD3" t="n">
-        <v>2537588.130594963</v>
+        <v>2633584.342860483</v>
       </c>
       <c r="AE3" t="n">
-        <v>3472040.03076748</v>
+        <v>3603386.283443162</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.092763731763388e-06</v>
+        <v>1.970511599916003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.22083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3140673.40326969</v>
+        <v>3259484.153935622</v>
       </c>
     </row>
     <row r="4">
@@ -25498,28 +25498,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2141.741184419895</v>
+        <v>2228.129250324263</v>
       </c>
       <c r="AB4" t="n">
-        <v>2930.424775475802</v>
+        <v>3048.624738418822</v>
       </c>
       <c r="AC4" t="n">
-        <v>2650.749147781395</v>
+        <v>2757.668272155708</v>
       </c>
       <c r="AD4" t="n">
-        <v>2141741.184419895</v>
+        <v>2228129.250324263</v>
       </c>
       <c r="AE4" t="n">
-        <v>2930424.775475802</v>
+        <v>3048624.738418822</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.202215099859648e-06</v>
+        <v>2.16787831715901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.37916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2650749.147781395</v>
+        <v>2757668.272155708</v>
       </c>
     </row>
     <row r="5">
@@ -25604,28 +25604,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1960.535186185866</v>
+        <v>2047.008503436253</v>
       </c>
       <c r="AB5" t="n">
-        <v>2682.490734447568</v>
+        <v>2800.807342043058</v>
       </c>
       <c r="AC5" t="n">
-        <v>2426.477583651283</v>
+        <v>2533.502220276262</v>
       </c>
       <c r="AD5" t="n">
-        <v>1960535.186185866</v>
+        <v>2047008.503436252</v>
       </c>
       <c r="AE5" t="n">
-        <v>2682490.734447568</v>
+        <v>2800807.342043058</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.258849819397829e-06</v>
+        <v>2.270004118523124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.55277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>2426477.583651283</v>
+        <v>2533502.220276262</v>
       </c>
     </row>
     <row r="6">
@@ -25710,28 +25710,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1859.515659650048</v>
+        <v>1936.380920047831</v>
       </c>
       <c r="AB6" t="n">
-        <v>2544.271361574286</v>
+        <v>2649.441801906492</v>
       </c>
       <c r="AC6" t="n">
-        <v>2301.449673732919</v>
+        <v>2396.58279484746</v>
       </c>
       <c r="AD6" t="n">
-        <v>1859515.659650048</v>
+        <v>1936380.920047831</v>
       </c>
       <c r="AE6" t="n">
-        <v>2544271.361574286</v>
+        <v>2649441.801906493</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.292576113055398e-06</v>
+        <v>2.33082060697591e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.09305555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>2301449.673732919</v>
+        <v>2396582.79484746</v>
       </c>
     </row>
     <row r="7">
@@ -25816,28 +25816,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1774.980357026508</v>
+        <v>1861.368333422322</v>
       </c>
       <c r="AB7" t="n">
-        <v>2428.606431090417</v>
+        <v>2546.80627156371</v>
       </c>
       <c r="AC7" t="n">
-        <v>2196.823641877681</v>
+        <v>2303.742655470721</v>
       </c>
       <c r="AD7" t="n">
-        <v>1774980.357026508</v>
+        <v>1861368.333422322</v>
       </c>
       <c r="AE7" t="n">
-        <v>2428606.431090417</v>
+        <v>2546806.27156371</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.316279970390198e-06</v>
+        <v>2.373564271029992e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.78611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2196823.641877681</v>
+        <v>2303742.655470721</v>
       </c>
     </row>
     <row r="8">
@@ -25922,28 +25922,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1717.196308399476</v>
+        <v>1803.58428479529</v>
       </c>
       <c r="AB8" t="n">
-        <v>2349.543746506603</v>
+        <v>2467.743586979896</v>
       </c>
       <c r="AC8" t="n">
-        <v>2125.306588945371</v>
+        <v>2232.225602538411</v>
       </c>
       <c r="AD8" t="n">
-        <v>1717196.308399476</v>
+        <v>1803584.28479529</v>
       </c>
       <c r="AE8" t="n">
-        <v>2349543.746506603</v>
+        <v>2467743.586979896</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.333461289800658e-06</v>
+        <v>2.404546255713487e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.57083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2125306.588945372</v>
+        <v>2232225.602538412</v>
       </c>
     </row>
     <row r="9">
@@ -26028,28 +26028,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1668.777416664745</v>
+        <v>1745.557336207956</v>
       </c>
       <c r="AB9" t="n">
-        <v>2283.294882744399</v>
+        <v>2388.348555954409</v>
       </c>
       <c r="AC9" t="n">
-        <v>2065.380423759768</v>
+        <v>2160.407921842371</v>
       </c>
       <c r="AD9" t="n">
-        <v>1668777.416664745</v>
+        <v>1745557.336207957</v>
       </c>
       <c r="AE9" t="n">
-        <v>2283294.882744399</v>
+        <v>2388348.555954409</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345392761613477e-06</v>
+        <v>2.426061522854803e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.42361111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>2065380.423759768</v>
+        <v>2160407.921842371</v>
       </c>
     </row>
     <row r="10">
@@ -26134,28 +26134,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1622.365595043114</v>
+        <v>1699.145514586325</v>
       </c>
       <c r="AB10" t="n">
-        <v>2219.792180856622</v>
+        <v>2324.845854066631</v>
       </c>
       <c r="AC10" t="n">
-        <v>2007.938330613558</v>
+        <v>2102.965828696161</v>
       </c>
       <c r="AD10" t="n">
-        <v>1622365.595043114</v>
+        <v>1699145.514586325</v>
       </c>
       <c r="AE10" t="n">
-        <v>2219792.180856622</v>
+        <v>2324845.854066631</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.356051543099595e-06</v>
+        <v>2.445281828167712e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.29444444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>2007938.330613558</v>
+        <v>2102965.828696161</v>
       </c>
     </row>
     <row r="11">
@@ -26240,28 +26240,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1583.693500453729</v>
+        <v>1660.47341999694</v>
       </c>
       <c r="AB11" t="n">
-        <v>2166.879314947022</v>
+        <v>2271.932988157031</v>
       </c>
       <c r="AC11" t="n">
-        <v>1960.075394362697</v>
+        <v>2055.102892445299</v>
       </c>
       <c r="AD11" t="n">
-        <v>1583693.500453728</v>
+        <v>1660473.41999694</v>
       </c>
       <c r="AE11" t="n">
-        <v>2166879.314947022</v>
+        <v>2271932.988157031</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.363528598768962e-06</v>
+        <v>2.458764728909603e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.20555555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>1960075.394362697</v>
+        <v>2055102.892445299</v>
       </c>
     </row>
     <row r="12">
@@ -26346,28 +26346,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1573.397654217992</v>
+        <v>1650.177573761203</v>
       </c>
       <c r="AB12" t="n">
-        <v>2152.792083906609</v>
+        <v>2257.845757116617</v>
       </c>
       <c r="AC12" t="n">
-        <v>1947.332628881227</v>
+        <v>2042.36012696383</v>
       </c>
       <c r="AD12" t="n">
-        <v>1573397.654217992</v>
+        <v>1650177.573761203</v>
       </c>
       <c r="AE12" t="n">
-        <v>2152792.083906609</v>
+        <v>2257845.757116617</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.36559672054985e-06</v>
+        <v>2.462494041880765e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1947332.628881227</v>
+        <v>2042360.12696383</v>
       </c>
     </row>
     <row r="13">
@@ -26452,28 +26452,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1582.323886350189</v>
+        <v>1659.1038058934</v>
       </c>
       <c r="AB13" t="n">
-        <v>2165.005348507449</v>
+        <v>2270.059021717458</v>
       </c>
       <c r="AC13" t="n">
-        <v>1958.380276649988</v>
+        <v>2053.40777473259</v>
       </c>
       <c r="AD13" t="n">
-        <v>1582323.886350189</v>
+        <v>1659103.8058934</v>
       </c>
       <c r="AE13" t="n">
-        <v>2165005.348507449</v>
+        <v>2270059.021717458</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.36559672054985e-06</v>
+        <v>2.462494041880765e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1958380.276649988</v>
+        <v>2053407.77473259</v>
       </c>
     </row>
   </sheetData>
@@ -26749,28 +26749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3086.946711299236</v>
+        <v>3206.963144737262</v>
       </c>
       <c r="AB2" t="n">
-        <v>4223.696676877198</v>
+        <v>4387.908455858475</v>
       </c>
       <c r="AC2" t="n">
-        <v>3820.592994031396</v>
+        <v>3969.132631299373</v>
       </c>
       <c r="AD2" t="n">
-        <v>3086946.711299235</v>
+        <v>3206963.144737262</v>
       </c>
       <c r="AE2" t="n">
-        <v>4223696.676877198</v>
+        <v>4387908.455858476</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.417593677538375e-07</v>
+        <v>1.757021953685919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.43888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3820592.994031396</v>
+        <v>3969132.631299373</v>
       </c>
     </row>
     <row r="3">
@@ -26855,28 +26855,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1961.653746434956</v>
+        <v>2054.085610575147</v>
       </c>
       <c r="AB3" t="n">
-        <v>2684.021197927767</v>
+        <v>2810.490552250425</v>
       </c>
       <c r="AC3" t="n">
-        <v>2427.861981844952</v>
+        <v>2542.261278491909</v>
       </c>
       <c r="AD3" t="n">
-        <v>1961653.746434956</v>
+        <v>2054085.610575147</v>
       </c>
       <c r="AE3" t="n">
-        <v>2684021.197927767</v>
+        <v>2810490.552250425</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.212703687000278e-06</v>
+        <v>2.262517448015758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2427861.981844952</v>
+        <v>2542261.278491909</v>
       </c>
     </row>
     <row r="4">
@@ -26961,28 +26961,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1703.298389099065</v>
+        <v>1786.563873594351</v>
       </c>
       <c r="AB4" t="n">
-        <v>2330.528000186855</v>
+        <v>2444.455509487225</v>
       </c>
       <c r="AC4" t="n">
-        <v>2108.105678765613</v>
+        <v>2211.160106476618</v>
       </c>
       <c r="AD4" t="n">
-        <v>1703298.389099065</v>
+        <v>1786563.873594351</v>
       </c>
       <c r="AE4" t="n">
-        <v>2330528.000186855</v>
+        <v>2444455.509487225</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.306167048501803e-06</v>
+        <v>2.43689020569284e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.62222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2108105.678765613</v>
+        <v>2211160.106476618</v>
       </c>
     </row>
     <row r="5">
@@ -27067,28 +27067,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1578.046460377234</v>
+        <v>1652.060313881595</v>
       </c>
       <c r="AB5" t="n">
-        <v>2159.152785584537</v>
+        <v>2260.421805209969</v>
       </c>
       <c r="AC5" t="n">
-        <v>1953.086274118315</v>
+        <v>2044.690320642658</v>
       </c>
       <c r="AD5" t="n">
-        <v>1578046.460377234</v>
+        <v>1652060.313881595</v>
       </c>
       <c r="AE5" t="n">
-        <v>2159152.785584536</v>
+        <v>2260421.805209969</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.353727305152402e-06</v>
+        <v>2.525622442312206e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.00277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1953086.274118315</v>
+        <v>2044690.320642658</v>
       </c>
     </row>
     <row r="6">
@@ -27173,28 +27173,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1484.265065171558</v>
+        <v>1567.445208812273</v>
       </c>
       <c r="AB6" t="n">
-        <v>2030.836943320973</v>
+        <v>2144.647685499146</v>
       </c>
       <c r="AC6" t="n">
-        <v>1837.016715747971</v>
+        <v>1939.965520427038</v>
       </c>
       <c r="AD6" t="n">
-        <v>1484265.065171558</v>
+        <v>1567445.208812273</v>
       </c>
       <c r="AE6" t="n">
-        <v>2030836.943320973</v>
+        <v>2144647.685499146</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.382893176826636e-06</v>
+        <v>2.580036636197253e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.64444444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>1837016.715747971</v>
+        <v>1939965.520427038</v>
       </c>
     </row>
     <row r="7">
@@ -27279,28 +27279,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1416.05513142828</v>
+        <v>1489.983644078069</v>
       </c>
       <c r="AB7" t="n">
-        <v>1937.509102763522</v>
+        <v>2038.661355266757</v>
       </c>
       <c r="AC7" t="n">
-        <v>1752.595953306875</v>
+        <v>1844.09437679928</v>
       </c>
       <c r="AD7" t="n">
-        <v>1416055.131428279</v>
+        <v>1489983.644078069</v>
       </c>
       <c r="AE7" t="n">
-        <v>1937509.102763522</v>
+        <v>2038661.355266757</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402944713602673e-06</v>
+        <v>2.617446394493223e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.40694444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1752595.953306875</v>
+        <v>1844094.37679928</v>
       </c>
     </row>
     <row r="8">
@@ -27385,28 +27385,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1393.086502660863</v>
+        <v>1467.015015310653</v>
       </c>
       <c r="AB8" t="n">
-        <v>1906.082411579557</v>
+        <v>2007.234664082793</v>
       </c>
       <c r="AC8" t="n">
-        <v>1724.16858142187</v>
+        <v>1815.667004914275</v>
       </c>
       <c r="AD8" t="n">
-        <v>1393086.502660863</v>
+        <v>1467015.015310653</v>
       </c>
       <c r="AE8" t="n">
-        <v>1906082.411579557</v>
+        <v>2007234.664082793</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.40907617526146e-06</v>
+        <v>2.62888574207133e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1724168.58142187</v>
+        <v>1815667.004914275</v>
       </c>
     </row>
     <row r="9">
@@ -27491,28 +27491,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1402.466409135912</v>
+        <v>1476.394921785702</v>
       </c>
       <c r="AB9" t="n">
-        <v>1918.916413430988</v>
+        <v>2020.068665934223</v>
       </c>
       <c r="AC9" t="n">
-        <v>1735.777724149235</v>
+        <v>1827.27614764164</v>
       </c>
       <c r="AD9" t="n">
-        <v>1402466.409135913</v>
+        <v>1476394.921785702</v>
       </c>
       <c r="AE9" t="n">
-        <v>1918916.413430988</v>
+        <v>2020068.665934223</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.40907617526146e-06</v>
+        <v>2.62888574207133e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1735777.724149235</v>
+        <v>1827276.14764164</v>
       </c>
     </row>
   </sheetData>
@@ -51729,28 +51729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2291.754569887682</v>
+        <v>2390.304367653081</v>
       </c>
       <c r="AB2" t="n">
-        <v>3135.679707596491</v>
+        <v>3270.519888609348</v>
       </c>
       <c r="AC2" t="n">
-        <v>2836.414837257473</v>
+        <v>2958.386060643842</v>
       </c>
       <c r="AD2" t="n">
-        <v>2291754.569887681</v>
+        <v>2390304.367653081</v>
       </c>
       <c r="AE2" t="n">
-        <v>3135679.707596491</v>
+        <v>3270519.888609348</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.074147320549005e-06</v>
+        <v>2.065625130673644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2836414.837257473</v>
+        <v>2958386.060643842</v>
       </c>
     </row>
     <row r="3">
@@ -51835,28 +51835,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1584.926108210165</v>
+        <v>1665.542260682579</v>
       </c>
       <c r="AB3" t="n">
-        <v>2168.565823258195</v>
+        <v>2278.868399604592</v>
       </c>
       <c r="AC3" t="n">
-        <v>1961.600944687681</v>
+        <v>2061.376397958215</v>
       </c>
       <c r="AD3" t="n">
-        <v>1584926.108210166</v>
+        <v>1665542.260682579</v>
       </c>
       <c r="AE3" t="n">
-        <v>2168565.823258195</v>
+        <v>2278868.399604592</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.310884864385292e-06</v>
+        <v>2.520880206553041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.1625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1961600.944687681</v>
+        <v>2061376.397958215</v>
       </c>
     </row>
     <row r="4">
@@ -51941,28 +51941,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1389.746749621341</v>
+        <v>1461.481420301833</v>
       </c>
       <c r="AB4" t="n">
-        <v>1901.512814131377</v>
+        <v>1999.663355266743</v>
       </c>
       <c r="AC4" t="n">
-        <v>1720.035099940674</v>
+        <v>1808.81829118523</v>
       </c>
       <c r="AD4" t="n">
-        <v>1389746.749621341</v>
+        <v>1461481.420301833</v>
       </c>
       <c r="AE4" t="n">
-        <v>1901512.814131377</v>
+        <v>1999663.355266743</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.392140183558644e-06</v>
+        <v>2.677137198563782e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.10277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1720035.099940674</v>
+        <v>1808818.29118523</v>
       </c>
     </row>
     <row r="5">
@@ -52047,28 +52047,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1276.12745155376</v>
+        <v>1356.743514517623</v>
       </c>
       <c r="AB5" t="n">
-        <v>1746.053877985649</v>
+        <v>1856.356331862497</v>
       </c>
       <c r="AC5" t="n">
-        <v>1579.412946472707</v>
+        <v>1679.188288962014</v>
       </c>
       <c r="AD5" t="n">
-        <v>1276127.45155376</v>
+        <v>1356743.514517623</v>
       </c>
       <c r="AE5" t="n">
-        <v>1746053.877985649</v>
+        <v>1856356.331862497</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432424993697332e-06</v>
+        <v>2.754606382366576e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.62083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1579412.946472707</v>
+        <v>1679188.288962014</v>
       </c>
     </row>
     <row r="6">
@@ -52153,28 +52153,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1258.048087406813</v>
+        <v>1338.664150370675</v>
       </c>
       <c r="AB6" t="n">
-        <v>1721.316894354542</v>
+        <v>1831.61934823139</v>
       </c>
       <c r="AC6" t="n">
-        <v>1557.036825840778</v>
+        <v>1656.812168330086</v>
       </c>
       <c r="AD6" t="n">
-        <v>1258048.087406813</v>
+        <v>1338664.150370675</v>
       </c>
       <c r="AE6" t="n">
-        <v>1721316.894354542</v>
+        <v>1831619.34823139</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.440996229897053e-06</v>
+        <v>2.771089187431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.52361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1557036.825840778</v>
+        <v>1656812.168330086</v>
       </c>
     </row>
   </sheetData>
@@ -52450,28 +52450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1173.110402743426</v>
+        <v>1257.04572938988</v>
       </c>
       <c r="AB2" t="n">
-        <v>1605.101407011912</v>
+        <v>1719.945423894861</v>
       </c>
       <c r="AC2" t="n">
-        <v>1451.912781500668</v>
+        <v>1555.796246596898</v>
       </c>
       <c r="AD2" t="n">
-        <v>1173110.402743426</v>
+        <v>1257045.72938988</v>
       </c>
       <c r="AE2" t="n">
-        <v>1605101.407011912</v>
+        <v>1719945.423894861</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.36410943896101e-06</v>
+        <v>2.81361120306549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.73194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1451912.781500668</v>
+        <v>1555796.246596898</v>
       </c>
     </row>
     <row r="3">
@@ -52556,28 +52556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>997.9950389743457</v>
+        <v>1073.443047524677</v>
       </c>
       <c r="AB3" t="n">
-        <v>1365.500840758449</v>
+        <v>1468.732134588234</v>
       </c>
       <c r="AC3" t="n">
-        <v>1235.179357008929</v>
+        <v>1328.55840104163</v>
       </c>
       <c r="AD3" t="n">
-        <v>997995.0389743457</v>
+        <v>1073443.047524677</v>
       </c>
       <c r="AE3" t="n">
-        <v>1365500.840758449</v>
+        <v>1468732.134588234</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.470088267776972e-06</v>
+        <v>3.032203063460112e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.38333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1235179.357008929</v>
+        <v>1328558.40104163</v>
       </c>
     </row>
   </sheetData>
@@ -52853,28 +52853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6472.782066034984</v>
+        <v>6641.170566673599</v>
       </c>
       <c r="AB2" t="n">
-        <v>8856.345981740582</v>
+        <v>9086.7425570907</v>
       </c>
       <c r="AC2" t="n">
-        <v>8011.108751202581</v>
+        <v>8219.516600764899</v>
       </c>
       <c r="AD2" t="n">
-        <v>6472782.066034985</v>
+        <v>6641170.566673599</v>
       </c>
       <c r="AE2" t="n">
-        <v>8856345.981740583</v>
+        <v>9086742.5570907</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.513305877481105e-07</v>
+        <v>1.14436214913048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.81111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>8011108.751202581</v>
+        <v>8219516.600764899</v>
       </c>
     </row>
     <row r="3">
@@ -52959,28 +52959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3129.558706844081</v>
+        <v>3238.571192516143</v>
       </c>
       <c r="AB3" t="n">
-        <v>4282.000289090225</v>
+        <v>4431.155981278194</v>
       </c>
       <c r="AC3" t="n">
-        <v>3873.332191324444</v>
+        <v>4008.252673591315</v>
       </c>
       <c r="AD3" t="n">
-        <v>3129558.706844081</v>
+        <v>3238571.192516143</v>
       </c>
       <c r="AE3" t="n">
-        <v>4282000.289090225</v>
+        <v>4431155.981278194</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.930752689171522e-07</v>
+        <v>1.744794072876948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.51944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>3873332.191324444</v>
+        <v>4008252.673591315</v>
       </c>
     </row>
     <row r="4">
@@ -53065,28 +53065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2569.748643766831</v>
+        <v>2668.680311268113</v>
       </c>
       <c r="AB4" t="n">
-        <v>3516.043463710938</v>
+        <v>3651.406135743334</v>
       </c>
       <c r="AC4" t="n">
-        <v>3180.477210332228</v>
+        <v>3302.921058928551</v>
       </c>
       <c r="AD4" t="n">
-        <v>2569748.643766831</v>
+        <v>2668680.311268113</v>
       </c>
       <c r="AE4" t="n">
-        <v>3516043.463710938</v>
+        <v>3651406.135743334</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.116017187086474e-06</v>
+        <v>1.960798173315231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.14861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>3180477.210332228</v>
+        <v>3302921.058928551</v>
       </c>
     </row>
     <row r="5">
@@ -53171,28 +53171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2331.550254874036</v>
+        <v>2420.657037259702</v>
       </c>
       <c r="AB5" t="n">
-        <v>3190.129919456538</v>
+        <v>3312.049750230407</v>
       </c>
       <c r="AC5" t="n">
-        <v>2885.668397318947</v>
+        <v>2995.952370559312</v>
       </c>
       <c r="AD5" t="n">
-        <v>2331550.254874036</v>
+        <v>2420657.037259702</v>
       </c>
       <c r="AE5" t="n">
-        <v>3190129.919456538</v>
+        <v>3312049.750230407</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.179873127061779e-06</v>
+        <v>2.072990540877043e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.11111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2885668.397318948</v>
+        <v>2995952.370559312</v>
       </c>
     </row>
     <row r="6">
@@ -53277,28 +53277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2189.680097560706</v>
+        <v>2278.872131292395</v>
       </c>
       <c r="AB6" t="n">
-        <v>2996.016911350644</v>
+        <v>3118.053386777339</v>
       </c>
       <c r="AC6" t="n">
-        <v>2710.081262267483</v>
+        <v>2820.470747758606</v>
       </c>
       <c r="AD6" t="n">
-        <v>2189680.097560706</v>
+        <v>2278872.131292395</v>
       </c>
       <c r="AE6" t="n">
-        <v>2996016.911350645</v>
+        <v>3118053.386777339</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.219417648926004e-06</v>
+        <v>2.142468705849057e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.525</v>
       </c>
       <c r="AH6" t="n">
-        <v>2710081.262267483</v>
+        <v>2820470.747758606</v>
       </c>
     </row>
     <row r="7">
@@ -53383,28 +53383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2100.989037695859</v>
+        <v>2180.270934965909</v>
       </c>
       <c r="AB7" t="n">
-        <v>2874.665890470149</v>
+        <v>2983.142879985487</v>
       </c>
       <c r="AC7" t="n">
-        <v>2600.311812502595</v>
+        <v>2698.435910386999</v>
       </c>
       <c r="AD7" t="n">
-        <v>2100989.037695859</v>
+        <v>2180270.934965909</v>
       </c>
       <c r="AE7" t="n">
-        <v>2874665.890470149</v>
+        <v>2983142.879985487</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.246190982795168e-06</v>
+        <v>2.189508397308708e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.14861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2600311.812502595</v>
+        <v>2698435.910386999</v>
       </c>
     </row>
     <row r="8">
@@ -53489,28 +53489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2028.520538442989</v>
+        <v>2117.627231320103</v>
       </c>
       <c r="AB8" t="n">
-        <v>2775.511292707823</v>
+        <v>2897.431001012138</v>
       </c>
       <c r="AC8" t="n">
-        <v>2510.620390386354</v>
+        <v>2620.904252845489</v>
       </c>
       <c r="AD8" t="n">
-        <v>2028520.538442989</v>
+        <v>2117627.231320104</v>
       </c>
       <c r="AE8" t="n">
-        <v>2775511.292707823</v>
+        <v>2897431.001012138</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.264193741776158e-06</v>
+        <v>2.221138534669508e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.90416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2510620.390386354</v>
+        <v>2620904.252845489</v>
       </c>
     </row>
     <row r="9">
@@ -53595,28 +53595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1974.269069106101</v>
+        <v>2063.375761983215</v>
       </c>
       <c r="AB9" t="n">
-        <v>2701.282038955185</v>
+        <v>2823.201747259498</v>
       </c>
       <c r="AC9" t="n">
-        <v>2443.475472430454</v>
+        <v>2553.75933488959</v>
       </c>
       <c r="AD9" t="n">
-        <v>1974269.069106101</v>
+        <v>2063375.761983215</v>
       </c>
       <c r="AE9" t="n">
-        <v>2701282.038955185</v>
+        <v>2823201.747259499</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.279272975794423e-06</v>
+        <v>2.247632153997358e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.70416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2443475.472430455</v>
+        <v>2553759.33488959</v>
       </c>
     </row>
     <row r="10">
@@ -53701,28 +53701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1928.417980638859</v>
+        <v>2017.524673515974</v>
       </c>
       <c r="AB10" t="n">
-        <v>2638.546556907044</v>
+        <v>2760.466265211359</v>
       </c>
       <c r="AC10" t="n">
-        <v>2386.727376739187</v>
+        <v>2497.011239198323</v>
       </c>
       <c r="AD10" t="n">
-        <v>1928417.98063886</v>
+        <v>2017524.673515974</v>
       </c>
       <c r="AE10" t="n">
-        <v>2638546.556907044</v>
+        <v>2760466.265211359</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.291274815115082e-06</v>
+        <v>2.26871891223789e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.55</v>
       </c>
       <c r="AH10" t="n">
-        <v>2386727.376739187</v>
+        <v>2497011.239198323</v>
       </c>
     </row>
     <row r="11">
@@ -53807,28 +53807,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1890.729006814553</v>
+        <v>1969.925563230032</v>
       </c>
       <c r="AB11" t="n">
-        <v>2586.978840200452</v>
+        <v>2695.339062593592</v>
       </c>
       <c r="AC11" t="n">
-        <v>2340.081210539327</v>
+        <v>2438.099685391792</v>
       </c>
       <c r="AD11" t="n">
-        <v>1890729.006814553</v>
+        <v>1969925.563230032</v>
       </c>
       <c r="AE11" t="n">
-        <v>2586978.840200452</v>
+        <v>2695339.062593592</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.300045390003257e-06</v>
+        <v>2.284128466336742e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.4375</v>
       </c>
       <c r="AH11" t="n">
-        <v>2340081.210539327</v>
+        <v>2438099.685391792</v>
       </c>
     </row>
     <row r="12">
@@ -53913,28 +53913,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1856.559568019096</v>
+        <v>1935.756124434575</v>
       </c>
       <c r="AB12" t="n">
-        <v>2540.226706591259</v>
+        <v>2648.586928984398</v>
       </c>
       <c r="AC12" t="n">
-        <v>2297.791034944763</v>
+        <v>2395.809509797228</v>
       </c>
       <c r="AD12" t="n">
-        <v>1856559.568019096</v>
+        <v>1935756.124434575</v>
       </c>
       <c r="AE12" t="n">
-        <v>2540226.706591259</v>
+        <v>2648586.928984398</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.306969528072868e-06</v>
+        <v>2.296293903783203e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.35138888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>2297791.034944763</v>
+        <v>2395809.509797228</v>
       </c>
     </row>
     <row r="13">
@@ -54019,28 +54019,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1822.407767745848</v>
+        <v>1901.604324161326</v>
       </c>
       <c r="AB13" t="n">
-        <v>2493.498706786308</v>
+        <v>2601.858929179448</v>
       </c>
       <c r="AC13" t="n">
-        <v>2255.522689858037</v>
+        <v>2353.541164710502</v>
       </c>
       <c r="AD13" t="n">
-        <v>1822407.767745848</v>
+        <v>1901604.324161326</v>
       </c>
       <c r="AE13" t="n">
-        <v>2493498.706786308</v>
+        <v>2601858.929179448</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.31404753587736e-06</v>
+        <v>2.308729684284031e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.2625</v>
       </c>
       <c r="AH13" t="n">
-        <v>2255522.689858037</v>
+        <v>2353541.164710502</v>
       </c>
     </row>
     <row r="14">
@@ -54125,28 +54125,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1789.785222531325</v>
+        <v>1868.981778946803</v>
       </c>
       <c r="AB14" t="n">
-        <v>2448.863101218677</v>
+        <v>2557.223323611816</v>
       </c>
       <c r="AC14" t="n">
-        <v>2215.147043839314</v>
+        <v>2313.16551869178</v>
       </c>
       <c r="AD14" t="n">
-        <v>1789785.222531324</v>
+        <v>1868981.778946803</v>
       </c>
       <c r="AE14" t="n">
-        <v>2448863.101218677</v>
+        <v>2557223.323611816</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.32004845553769e-06</v>
+        <v>2.319273063404297e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.18888888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>2215147.043839314</v>
+        <v>2313165.51869178</v>
       </c>
     </row>
     <row r="15">
@@ -54231,28 +54231,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1763.07487373179</v>
+        <v>1842.271430147269</v>
       </c>
       <c r="AB15" t="n">
-        <v>2412.31682361373</v>
+        <v>2520.67704600687</v>
       </c>
       <c r="AC15" t="n">
-        <v>2182.088691675961</v>
+        <v>2280.107166528427</v>
       </c>
       <c r="AD15" t="n">
-        <v>1763074.87373179</v>
+        <v>1842271.430147269</v>
       </c>
       <c r="AE15" t="n">
-        <v>2412316.82361373</v>
+        <v>2520677.04600687</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.324202938379457e-06</v>
+        <v>2.326572325872174e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.1375</v>
       </c>
       <c r="AH15" t="n">
-        <v>2182088.691675961</v>
+        <v>2280107.166528427</v>
       </c>
     </row>
     <row r="16">
@@ -54337,28 +54337,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1740.102518294429</v>
+        <v>1819.299074709908</v>
       </c>
       <c r="AB16" t="n">
-        <v>2380.885033435538</v>
+        <v>2489.245255828677</v>
       </c>
       <c r="AC16" t="n">
-        <v>2153.656707437581</v>
+        <v>2251.675182290046</v>
       </c>
       <c r="AD16" t="n">
-        <v>1740102.518294429</v>
+        <v>1819299.074709908</v>
       </c>
       <c r="AE16" t="n">
-        <v>2380885.033435538</v>
+        <v>2489245.255828677</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.327434202811942e-06</v>
+        <v>2.332249530013856e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.09861111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>2153656.707437581</v>
+        <v>2251675.182290046</v>
       </c>
     </row>
     <row r="17">
@@ -54443,28 +54443,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1742.617797231234</v>
+        <v>1821.814353646713</v>
       </c>
       <c r="AB17" t="n">
-        <v>2384.326549043149</v>
+        <v>2492.686771436289</v>
       </c>
       <c r="AC17" t="n">
-        <v>2156.7697696258</v>
+        <v>2254.788244478266</v>
       </c>
       <c r="AD17" t="n">
-        <v>1742617.797231234</v>
+        <v>1821814.353646713</v>
       </c>
       <c r="AE17" t="n">
-        <v>2384326.54904315</v>
+        <v>2492686.771436289</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.327895812016582e-06</v>
+        <v>2.333060559176954e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.09305555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>2156769.7696258</v>
+        <v>2254788.244478266</v>
       </c>
     </row>
     <row r="18">
@@ -54549,28 +54549,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1750.951623931226</v>
+        <v>1830.148180346704</v>
       </c>
       <c r="AB18" t="n">
-        <v>2395.729258396564</v>
+        <v>2504.089480789703</v>
       </c>
       <c r="AC18" t="n">
-        <v>2167.084220402327</v>
+        <v>2265.102695254792</v>
       </c>
       <c r="AD18" t="n">
-        <v>1750951.623931226</v>
+        <v>1830148.180346704</v>
       </c>
       <c r="AE18" t="n">
-        <v>2395729.258396564</v>
+        <v>2504089.480789703</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.327895812016582e-06</v>
+        <v>2.333060559176954e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.09305555555556</v>
       </c>
       <c r="AH18" t="n">
-        <v>2167084.220402327</v>
+        <v>2265102.695254792</v>
       </c>
     </row>
   </sheetData>
@@ -54846,28 +54846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10499.13954394655</v>
+        <v>10724.55747037598</v>
       </c>
       <c r="AB2" t="n">
-        <v>14365.3859133749</v>
+        <v>14673.81266505271</v>
       </c>
       <c r="AC2" t="n">
-        <v>12994.37364374762</v>
+        <v>13273.36457912495</v>
       </c>
       <c r="AD2" t="n">
-        <v>10499139.54394655</v>
+        <v>10724557.47037598</v>
       </c>
       <c r="AE2" t="n">
-        <v>14365385.9133749</v>
+        <v>14673812.66505271</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.029446377587888e-07</v>
+        <v>8.599792812122821e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.94861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>12994373.64374762</v>
+        <v>13273364.57912495</v>
       </c>
     </row>
     <row r="3">
@@ -54952,28 +54952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4022.089981167403</v>
+        <v>4145.014270235799</v>
       </c>
       <c r="AB3" t="n">
-        <v>5503.20095432029</v>
+        <v>5671.391389660573</v>
       </c>
       <c r="AC3" t="n">
-        <v>4977.983179030804</v>
+        <v>5130.121755278962</v>
       </c>
       <c r="AD3" t="n">
-        <v>4022089.981167404</v>
+        <v>4145014.270235799</v>
       </c>
       <c r="AE3" t="n">
-        <v>5503200.95432029</v>
+        <v>5671391.389660573</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.785221045757145e-07</v>
+        <v>1.502174894216619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.44027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>4977983.179030804</v>
+        <v>5130121.755278962</v>
       </c>
     </row>
     <row r="4">
@@ -55058,28 +55058,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3163.204574817444</v>
+        <v>3265.69839119558</v>
       </c>
       <c r="AB4" t="n">
-        <v>4328.036050002319</v>
+        <v>4468.272611278945</v>
       </c>
       <c r="AC4" t="n">
-        <v>3914.974363826682</v>
+        <v>4041.82694451831</v>
       </c>
       <c r="AD4" t="n">
-        <v>3163204.574817444</v>
+        <v>3265698.39119558</v>
       </c>
       <c r="AE4" t="n">
-        <v>4328036.050002319</v>
+        <v>4468272.611278945</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.016713260941042e-06</v>
+        <v>1.738466371247824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.25416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3914974.363826682</v>
+        <v>4041826.94451831</v>
       </c>
     </row>
     <row r="5">
@@ -55164,28 +55164,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2813.455641927444</v>
+        <v>2915.949368797028</v>
       </c>
       <c r="AB5" t="n">
-        <v>3849.494130188257</v>
+        <v>3989.730568995334</v>
       </c>
       <c r="AC5" t="n">
-        <v>3482.103813201889</v>
+        <v>3608.956283112291</v>
       </c>
       <c r="AD5" t="n">
-        <v>2813455.641927444</v>
+        <v>2915949.368797028</v>
       </c>
       <c r="AE5" t="n">
-        <v>3849494.130188257</v>
+        <v>3989730.568995334</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.089812230992658e-06</v>
+        <v>1.863457463711755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.89722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>3482103.813201889</v>
+        <v>3608956.283112291</v>
       </c>
     </row>
     <row r="6">
@@ -55270,28 +55270,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2632.029662277043</v>
+        <v>2724.265571882763</v>
       </c>
       <c r="AB6" t="n">
-        <v>3601.259100881233</v>
+        <v>3727.46034156493</v>
       </c>
       <c r="AC6" t="n">
-        <v>3257.559986691885</v>
+        <v>3371.716758089279</v>
       </c>
       <c r="AD6" t="n">
-        <v>2632029.662277043</v>
+        <v>2724265.571882763</v>
       </c>
       <c r="AE6" t="n">
-        <v>3601259.100881233</v>
+        <v>3727460.341564931</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.135332279280379e-06</v>
+        <v>1.941291673420532e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.13888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>3257559.986691885</v>
+        <v>3371716.758089279</v>
       </c>
     </row>
     <row r="7">
@@ -55376,28 +55376,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2505.288930278133</v>
+        <v>2597.610091229873</v>
       </c>
       <c r="AB7" t="n">
-        <v>3427.84683995384</v>
+        <v>3554.164725290187</v>
       </c>
       <c r="AC7" t="n">
-        <v>3100.697948561771</v>
+        <v>3214.960232209878</v>
       </c>
       <c r="AD7" t="n">
-        <v>2505288.930278133</v>
+        <v>2597610.091229873</v>
       </c>
       <c r="AE7" t="n">
-        <v>3427846.83995384</v>
+        <v>3554164.725290187</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.166321497821531e-06</v>
+        <v>1.994279783613152e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.65694444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>3100697.948561771</v>
+        <v>3214960.232209878</v>
       </c>
     </row>
     <row r="8">
@@ -55482,28 +55482,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2424.453495787852</v>
+        <v>2516.604064539</v>
       </c>
       <c r="AB8" t="n">
-        <v>3317.244232276552</v>
+        <v>3443.328705838052</v>
       </c>
       <c r="AC8" t="n">
-        <v>3000.651098529474</v>
+        <v>3114.702246894929</v>
       </c>
       <c r="AD8" t="n">
-        <v>2424453.495787852</v>
+        <v>2516604.064539</v>
       </c>
       <c r="AE8" t="n">
-        <v>3317244.232276552</v>
+        <v>3443328.705838052</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.188117742441384e-06</v>
+        <v>2.031548932887387e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3000651.098529474</v>
+        <v>3114702.24689493</v>
       </c>
     </row>
     <row r="9">
@@ -55588,28 +55588,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2361.728978883159</v>
+        <v>2443.792322571034</v>
       </c>
       <c r="AB9" t="n">
-        <v>3231.421781037159</v>
+        <v>3343.704468250127</v>
       </c>
       <c r="AC9" t="n">
-        <v>2923.019421583805</v>
+        <v>3024.586006718904</v>
       </c>
       <c r="AD9" t="n">
-        <v>2361728.978883159</v>
+        <v>2443792.322571034</v>
       </c>
       <c r="AE9" t="n">
-        <v>3231421.781037159</v>
+        <v>3343704.468250127</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.204872678781815e-06</v>
+        <v>2.060198006819282e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.09166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2923019.421583805</v>
+        <v>3024586.006718904</v>
       </c>
     </row>
     <row r="10">
@@ -55694,28 +55694,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2299.038939754681</v>
+        <v>2391.27475985185</v>
       </c>
       <c r="AB10" t="n">
-        <v>3145.646503812238</v>
+        <v>3271.847622026388</v>
       </c>
       <c r="AC10" t="n">
-        <v>2845.430416430876</v>
+        <v>2959.587077047044</v>
       </c>
       <c r="AD10" t="n">
-        <v>2299038.939754682</v>
+        <v>2391274.75985185</v>
       </c>
       <c r="AE10" t="n">
-        <v>3145646.503812238</v>
+        <v>3271847.622026388</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.218810413436687e-06</v>
+        <v>2.084029979824575e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.89583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2845430.416430876</v>
+        <v>2959587.077047044</v>
       </c>
     </row>
     <row r="11">
@@ -55800,28 +55800,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2256.816734587651</v>
+        <v>2349.05255468482</v>
       </c>
       <c r="AB11" t="n">
-        <v>3087.876219990475</v>
+        <v>3214.077338204625</v>
       </c>
       <c r="AC11" t="n">
-        <v>2793.173647415962</v>
+        <v>2907.330308032129</v>
       </c>
       <c r="AD11" t="n">
-        <v>2256816.734587651</v>
+        <v>2349052.55468482</v>
       </c>
       <c r="AE11" t="n">
-        <v>3087876.219990476</v>
+        <v>3214077.338204625</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.229486125087228e-06</v>
+        <v>2.102284257020119e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.74861111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>2793173.647415962</v>
+        <v>2907330.308032129</v>
       </c>
     </row>
     <row r="12">
@@ -55906,28 +55906,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2219.317643283425</v>
+        <v>2311.553463380594</v>
       </c>
       <c r="AB12" t="n">
-        <v>3036.56830892488</v>
+        <v>3162.76942713903</v>
       </c>
       <c r="AC12" t="n">
-        <v>2746.762491371363</v>
+        <v>2860.919151987531</v>
       </c>
       <c r="AD12" t="n">
-        <v>2219317.643283425</v>
+        <v>2311553.463380594</v>
       </c>
       <c r="AE12" t="n">
-        <v>3036568.30892488</v>
+        <v>3162769.42713903</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.238382551462678e-06</v>
+        <v>2.117496154683072e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.62916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2746762.491371363</v>
+        <v>2860919.151987531</v>
       </c>
     </row>
     <row r="13">
@@ -56012,28 +56012,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2189.483405344502</v>
+        <v>2281.719225441673</v>
       </c>
       <c r="AB13" t="n">
-        <v>2995.747788382986</v>
+        <v>3121.948906597311</v>
       </c>
       <c r="AC13" t="n">
-        <v>2709.837824018142</v>
+        <v>2823.994484634356</v>
       </c>
       <c r="AD13" t="n">
-        <v>2189483.405344502</v>
+        <v>2281719.225441673</v>
       </c>
       <c r="AE13" t="n">
-        <v>2995747.788382986</v>
+        <v>3121948.906597311</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.245499692563038e-06</v>
+        <v>2.129665672813434e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.53472222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>2709837.824018142</v>
+        <v>2823994.484634356</v>
       </c>
     </row>
     <row r="14">
@@ -56118,28 +56118,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2158.059371707592</v>
+        <v>2240.037374540898</v>
       </c>
       <c r="AB14" t="n">
-        <v>2952.752039230443</v>
+        <v>3064.917959321386</v>
       </c>
       <c r="AC14" t="n">
-        <v>2670.945528819804</v>
+        <v>2772.40649092301</v>
       </c>
       <c r="AD14" t="n">
-        <v>2158059.371707592</v>
+        <v>2240037.374540898</v>
       </c>
       <c r="AE14" t="n">
-        <v>2952752.039230443</v>
+        <v>3064917.959321386</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.25232028611755e-06</v>
+        <v>2.141328127688365e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>2670945.528819804</v>
+        <v>2772406.49092301</v>
       </c>
     </row>
     <row r="15">
@@ -56224,28 +56224,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2130.829888677029</v>
+        <v>2212.807891510336</v>
       </c>
       <c r="AB15" t="n">
-        <v>2915.495459268019</v>
+        <v>3027.661379358959</v>
       </c>
       <c r="AC15" t="n">
-        <v>2637.244664559055</v>
+        <v>2738.70562666226</v>
       </c>
       <c r="AD15" t="n">
-        <v>2130829.888677029</v>
+        <v>2212807.891510336</v>
       </c>
       <c r="AE15" t="n">
-        <v>2915495.459268019</v>
+        <v>3027661.379358959</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.257361594396972e-06</v>
+        <v>2.149948203030705e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.37916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2637244.664559055</v>
+        <v>2738705.62666226</v>
       </c>
     </row>
     <row r="16">
@@ -56330,28 +56330,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2108.760246168808</v>
+        <v>2190.738249002115</v>
       </c>
       <c r="AB16" t="n">
-        <v>2885.29880074436</v>
+        <v>2997.464720835299</v>
       </c>
       <c r="AC16" t="n">
-        <v>2609.929932743617</v>
+        <v>2711.390894846822</v>
       </c>
       <c r="AD16" t="n">
-        <v>2108760.246168809</v>
+        <v>2190738.249002114</v>
       </c>
       <c r="AE16" t="n">
-        <v>2885298.800744359</v>
+        <v>2997464.720835298</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.261661533811773e-06</v>
+        <v>2.157300620234466e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.32222222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>2609929.932743617</v>
+        <v>2711390.894846822</v>
       </c>
     </row>
     <row r="17">
@@ -56436,28 +56436,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2082.962876994719</v>
+        <v>2164.940879828023</v>
       </c>
       <c r="AB17" t="n">
-        <v>2850.001702140766</v>
+        <v>2962.16762223153</v>
       </c>
       <c r="AC17" t="n">
-        <v>2578.001539690963</v>
+        <v>2679.462501794121</v>
       </c>
       <c r="AD17" t="n">
-        <v>2082962.876994719</v>
+        <v>2164940.879828023</v>
       </c>
       <c r="AE17" t="n">
-        <v>2850001.702140766</v>
+        <v>2962167.62223153</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.266406294545346e-06</v>
+        <v>2.165413632321374e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.2625</v>
       </c>
       <c r="AH17" t="n">
-        <v>2578001.539690963</v>
+        <v>2679462.501794121</v>
       </c>
     </row>
     <row r="18">
@@ -56542,28 +56542,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2061.03266874405</v>
+        <v>2143.010671577354</v>
       </c>
       <c r="AB18" t="n">
-        <v>2819.995823719693</v>
+        <v>2932.161743810457</v>
       </c>
       <c r="AC18" t="n">
-        <v>2550.859380192882</v>
+        <v>2652.320342296041</v>
       </c>
       <c r="AD18" t="n">
-        <v>2061032.66874405</v>
+        <v>2143010.671577353</v>
       </c>
       <c r="AE18" t="n">
-        <v>2819995.823719693</v>
+        <v>2932161.743810457</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.269964865095527e-06</v>
+        <v>2.171498391386555e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.21666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2550859.380192882</v>
+        <v>2652320.342296041</v>
       </c>
     </row>
     <row r="19">
@@ -56648,28 +56648,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2040.027375474984</v>
+        <v>2122.005378308287</v>
       </c>
       <c r="AB19" t="n">
-        <v>2791.255454780821</v>
+        <v>2903.421374871585</v>
       </c>
       <c r="AC19" t="n">
-        <v>2524.861951728174</v>
+        <v>2626.322913831333</v>
       </c>
       <c r="AD19" t="n">
-        <v>2040027.375474984</v>
+        <v>2122005.378308287</v>
       </c>
       <c r="AE19" t="n">
-        <v>2791255.454780821</v>
+        <v>2903421.374871585</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.273226888099858e-06</v>
+        <v>2.177076087196305e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.17361111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>2524861.951728174</v>
+        <v>2626322.913831333</v>
       </c>
     </row>
     <row r="20">
@@ -56754,28 +56754,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2019.453536706433</v>
+        <v>2101.431539539737</v>
       </c>
       <c r="AB20" t="n">
-        <v>2763.105420923983</v>
+        <v>2875.271341014746</v>
       </c>
       <c r="AC20" t="n">
-        <v>2499.398517593812</v>
+        <v>2600.859479696971</v>
       </c>
       <c r="AD20" t="n">
-        <v>2019453.536706433</v>
+        <v>2101431.539539737</v>
       </c>
       <c r="AE20" t="n">
-        <v>2763105.420923983</v>
+        <v>2875271.341014746</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.276044089785418e-06</v>
+        <v>2.181893188122907e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.13888888888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>2499398.517593812</v>
+        <v>2600859.479696971</v>
       </c>
     </row>
     <row r="21">
@@ -56860,28 +56860,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1998.877881668369</v>
+        <v>2080.855884501673</v>
       </c>
       <c r="AB21" t="n">
-        <v>2734.952901967068</v>
+        <v>2847.118822057831</v>
       </c>
       <c r="AC21" t="n">
-        <v>2473.932835533837</v>
+        <v>2575.393797636996</v>
       </c>
       <c r="AD21" t="n">
-        <v>1998877.881668369</v>
+        <v>2080855.884501673</v>
       </c>
       <c r="AE21" t="n">
-        <v>2734952.901967068</v>
+        <v>2847118.822057832</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.278564743925128e-06</v>
+        <v>2.186203225794077e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>16.10555555555555</v>
       </c>
       <c r="AH21" t="n">
-        <v>2473932.835533837</v>
+        <v>2575393.797636996</v>
       </c>
     </row>
     <row r="22">
@@ -56966,28 +56966,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1978.674290488678</v>
+        <v>2060.652293321983</v>
       </c>
       <c r="AB22" t="n">
-        <v>2707.309457195478</v>
+        <v>2819.475377286242</v>
       </c>
       <c r="AC22" t="n">
-        <v>2448.92764233343</v>
+        <v>2550.388604436589</v>
       </c>
       <c r="AD22" t="n">
-        <v>1978674.290488678</v>
+        <v>2060652.293321983</v>
       </c>
       <c r="AE22" t="n">
-        <v>2707309.457195478</v>
+        <v>2819475.377286242</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.281678493156536e-06</v>
+        <v>2.19152738997611e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>16.06805555555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>2448927.64233343</v>
+        <v>2550388.604436588</v>
       </c>
     </row>
     <row r="23">
@@ -57072,28 +57072,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1959.785540495989</v>
+        <v>2041.763543329293</v>
       </c>
       <c r="AB23" t="n">
-        <v>2681.465036142644</v>
+        <v>2793.630956233408</v>
       </c>
       <c r="AC23" t="n">
-        <v>2425.549776553004</v>
+        <v>2527.010738656163</v>
       </c>
       <c r="AD23" t="n">
-        <v>1959785.540495989</v>
+        <v>2041763.543329293</v>
       </c>
       <c r="AE23" t="n">
-        <v>2681465.036142644</v>
+        <v>2793630.956233408</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.283012957112854e-06</v>
+        <v>2.193809174625553e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>16.05138888888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>2425549.776553005</v>
+        <v>2527010.738656163</v>
       </c>
     </row>
     <row r="24">
@@ -57178,28 +57178,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1961.088439261739</v>
+        <v>2043.066442095043</v>
       </c>
       <c r="AB24" t="n">
-        <v>2683.24771971378</v>
+        <v>2795.413639804543</v>
       </c>
       <c r="AC24" t="n">
-        <v>2427.162323306124</v>
+        <v>2528.623285409281</v>
       </c>
       <c r="AD24" t="n">
-        <v>1961088.439261739</v>
+        <v>2043066.442095043</v>
       </c>
       <c r="AE24" t="n">
-        <v>2683247.71971378</v>
+        <v>2795413.639804543</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.28360605220455e-06</v>
+        <v>2.194823301136417e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>16.04305555555556</v>
       </c>
       <c r="AH24" t="n">
-        <v>2427162.323306124</v>
+        <v>2528623.285409281</v>
       </c>
     </row>
     <row r="25">
@@ -57284,28 +57284,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1966.235946599555</v>
+        <v>2048.213949432858</v>
       </c>
       <c r="AB25" t="n">
-        <v>2690.290766345375</v>
+        <v>2802.456686436139</v>
       </c>
       <c r="AC25" t="n">
-        <v>2433.533191452178</v>
+        <v>2534.994153555336</v>
       </c>
       <c r="AD25" t="n">
-        <v>1966235.946599555</v>
+        <v>2048213.949432858</v>
       </c>
       <c r="AE25" t="n">
-        <v>2690290.766345375</v>
+        <v>2802456.686436139</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.28360605220455e-06</v>
+        <v>2.194823301136417e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.04444444444444</v>
       </c>
       <c r="AH25" t="n">
-        <v>2433533.191452178</v>
+        <v>2534994.153555336</v>
       </c>
     </row>
   </sheetData>
@@ -57581,28 +57581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.1384524101561</v>
+        <v>939.2945572648609</v>
       </c>
       <c r="AB2" t="n">
-        <v>1185.088841919276</v>
+        <v>1285.18425200105</v>
       </c>
       <c r="AC2" t="n">
-        <v>1071.985626129136</v>
+        <v>1162.528070757495</v>
       </c>
       <c r="AD2" t="n">
-        <v>866138.4524101561</v>
+        <v>939294.557264861</v>
       </c>
       <c r="AE2" t="n">
-        <v>1185088.841919276</v>
+        <v>1285184.252001049</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.443784143314331e-06</v>
+        <v>3.09469441232737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1071985.626129136</v>
+        <v>1162528.070757495</v>
       </c>
     </row>
   </sheetData>
@@ -57878,28 +57878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3528.128082955335</v>
+        <v>3650.045254631367</v>
       </c>
       <c r="AB2" t="n">
-        <v>4827.340493125557</v>
+        <v>4994.152946018726</v>
       </c>
       <c r="AC2" t="n">
-        <v>4366.625891676406</v>
+        <v>4517.517998188193</v>
       </c>
       <c r="AD2" t="n">
-        <v>3528128.082955335</v>
+        <v>3650045.254631367</v>
       </c>
       <c r="AE2" t="n">
-        <v>4827340.493125557</v>
+        <v>4994152.946018726</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.844314170826411e-07</v>
+        <v>1.629505217901217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4366625.891676406</v>
+        <v>4517517.998188193</v>
       </c>
     </row>
     <row r="3">
@@ -57984,28 +57984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2155.363981436913</v>
+        <v>2248.975828987117</v>
       </c>
       <c r="AB3" t="n">
-        <v>2949.064087349874</v>
+        <v>3077.147947031483</v>
       </c>
       <c r="AC3" t="n">
-        <v>2667.609549890643</v>
+        <v>2783.46926577095</v>
       </c>
       <c r="AD3" t="n">
-        <v>2155363.981436913</v>
+        <v>2248975.828987117</v>
       </c>
       <c r="AE3" t="n">
-        <v>2949064.087349874</v>
+        <v>3077147.947031483</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.169879370749638e-06</v>
+        <v>2.15542381481616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.3875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2667609.549890643</v>
+        <v>2783469.26577095</v>
       </c>
     </row>
     <row r="4">
@@ -58090,28 +58090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1850.640137974093</v>
+        <v>1944.251896015744</v>
       </c>
       <c r="AB4" t="n">
-        <v>2532.127481256863</v>
+        <v>2660.211218468744</v>
       </c>
       <c r="AC4" t="n">
-        <v>2290.464788308948</v>
+        <v>2406.324393407981</v>
       </c>
       <c r="AD4" t="n">
-        <v>1850640.137974093</v>
+        <v>1944251.896015744</v>
       </c>
       <c r="AE4" t="n">
-        <v>2532127.481256863</v>
+        <v>2660211.218468744</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.268185817035412e-06</v>
+        <v>2.336546809863525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.88472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2290464.788308948</v>
+        <v>2406324.393407981</v>
       </c>
     </row>
     <row r="5">
@@ -58196,28 +58196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1709.409017348838</v>
+        <v>1793.642620923961</v>
       </c>
       <c r="AB5" t="n">
-        <v>2338.888831340087</v>
+        <v>2454.140963875888</v>
       </c>
       <c r="AC5" t="n">
-        <v>2115.66856392808</v>
+        <v>2219.921194692048</v>
       </c>
       <c r="AD5" t="n">
-        <v>1709409.017348839</v>
+        <v>1793642.620923961</v>
       </c>
       <c r="AE5" t="n">
-        <v>2338888.831340087</v>
+        <v>2454140.963875888</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319951836092871e-06</v>
+        <v>2.431922207587803e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.18333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2115668.56392808</v>
+        <v>2219921.194692048</v>
       </c>
     </row>
     <row r="6">
@@ -58302,28 +58302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1613.305517636633</v>
+        <v>1697.624372557775</v>
       </c>
       <c r="AB6" t="n">
-        <v>2207.395783246669</v>
+        <v>2322.764560435119</v>
       </c>
       <c r="AC6" t="n">
-        <v>1996.725027793046</v>
+        <v>2101.083170807726</v>
       </c>
       <c r="AD6" t="n">
-        <v>1613305.517636633</v>
+        <v>1697624.372557775</v>
       </c>
       <c r="AE6" t="n">
-        <v>2207395.783246669</v>
+        <v>2322764.560435119</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.349835689365789e-06</v>
+        <v>2.486981191132102e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.80138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1996725.027793046</v>
+        <v>2101083.170807726</v>
       </c>
     </row>
     <row r="7">
@@ -58408,28 +58408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1543.626498019988</v>
+        <v>1627.945352941131</v>
       </c>
       <c r="AB7" t="n">
-        <v>2112.057874585784</v>
+        <v>2227.426651774234</v>
       </c>
       <c r="AC7" t="n">
-        <v>1910.486035327161</v>
+        <v>2014.844178341841</v>
       </c>
       <c r="AD7" t="n">
-        <v>1543626.498019988</v>
+        <v>1627945.352941131</v>
       </c>
       <c r="AE7" t="n">
-        <v>2112057.874585784</v>
+        <v>2227426.651774234</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.371554555405669e-06</v>
+        <v>2.526996736549543e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.53611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1910486.035327161</v>
+        <v>2014844.178341841</v>
       </c>
     </row>
     <row r="8">
@@ -58514,28 +58514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1487.124201810293</v>
+        <v>1562.064902264907</v>
       </c>
       <c r="AB8" t="n">
-        <v>2034.748940206297</v>
+        <v>2137.286112718668</v>
       </c>
       <c r="AC8" t="n">
-        <v>1840.555357141081</v>
+        <v>1933.306525820697</v>
       </c>
       <c r="AD8" t="n">
-        <v>1487124.201810293</v>
+        <v>1562064.902264907</v>
       </c>
       <c r="AE8" t="n">
-        <v>2034748.940206297</v>
+        <v>2137286.112718668</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.386578131914458e-06</v>
+        <v>2.554676662702961e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.35694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1840555.357141081</v>
+        <v>1933306.525820697</v>
       </c>
     </row>
     <row r="9">
@@ -58620,28 +58620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1453.092508770868</v>
+        <v>1528.033209225483</v>
       </c>
       <c r="AB9" t="n">
-        <v>1988.18527641742</v>
+        <v>2090.722448929792</v>
       </c>
       <c r="AC9" t="n">
-        <v>1798.435664071702</v>
+        <v>1891.186832751318</v>
       </c>
       <c r="AD9" t="n">
-        <v>1453092.508770868</v>
+        <v>1528033.209225483</v>
       </c>
       <c r="AE9" t="n">
-        <v>1988185.27641742</v>
+        <v>2090722.448929792</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.394743119147496e-06</v>
+        <v>2.569720100829819e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.2625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1798435.664071702</v>
+        <v>1891186.832751318</v>
       </c>
     </row>
     <row r="10">
@@ -58726,28 +58726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1461.409617855157</v>
+        <v>1536.350318309771</v>
       </c>
       <c r="AB10" t="n">
-        <v>1999.5651119915</v>
+        <v>2102.102284503871</v>
       </c>
       <c r="AC10" t="n">
-        <v>1808.729424110292</v>
+        <v>1901.480592789907</v>
       </c>
       <c r="AD10" t="n">
-        <v>1461409.617855157</v>
+        <v>1536350.318309771</v>
       </c>
       <c r="AE10" t="n">
-        <v>1999565.1119915</v>
+        <v>2102102.284503872</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.394906418892157e-06</v>
+        <v>2.570020969592356e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.25972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1808729.424110292</v>
+        <v>1901480.592789907</v>
       </c>
     </row>
   </sheetData>
@@ -59023,28 +59023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5114.983841114092</v>
+        <v>5260.690304727628</v>
       </c>
       <c r="AB2" t="n">
-        <v>6998.546548573686</v>
+        <v>7197.908560205238</v>
       </c>
       <c r="AC2" t="n">
-        <v>6330.615088499322</v>
+        <v>6510.950269547092</v>
       </c>
       <c r="AD2" t="n">
-        <v>5114983.841114092</v>
+        <v>5260690.304727628</v>
       </c>
       <c r="AE2" t="n">
-        <v>6998546.548573686</v>
+        <v>7197908.560205238</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.35959232733375e-07</v>
+        <v>1.314737460238797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.66944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>6330615.088499323</v>
+        <v>6510950.269547092</v>
       </c>
     </row>
     <row r="3">
@@ -59129,28 +59129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2726.037729201335</v>
+        <v>2832.803794996689</v>
       </c>
       <c r="AB3" t="n">
-        <v>3729.885085390264</v>
+        <v>3875.967126797871</v>
       </c>
       <c r="AC3" t="n">
-        <v>3373.910087767072</v>
+        <v>3506.050264170164</v>
       </c>
       <c r="AD3" t="n">
-        <v>2726037.729201335</v>
+        <v>2832803.794996689</v>
       </c>
       <c r="AE3" t="n">
-        <v>3729885.085390264</v>
+        <v>3875967.126797871</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.05795122346996e-06</v>
+        <v>1.889952653267862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.64027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>3373910.087767072</v>
+        <v>3506050.264170164</v>
       </c>
     </row>
     <row r="4">
@@ -59235,28 +59235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2280.714073901286</v>
+        <v>2377.766375455738</v>
       </c>
       <c r="AB4" t="n">
-        <v>3120.573613915597</v>
+        <v>3253.364854547767</v>
       </c>
       <c r="AC4" t="n">
-        <v>2822.750447955949</v>
+        <v>2942.868278955857</v>
       </c>
       <c r="AD4" t="n">
-        <v>2280714.073901286</v>
+        <v>2377766.375455739</v>
       </c>
       <c r="AE4" t="n">
-        <v>3120573.613915597</v>
+        <v>3253364.854547767</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.171937645971924e-06</v>
+        <v>2.093581078534499e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.63194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2822750.447955949</v>
+        <v>2942868.278955857</v>
       </c>
     </row>
     <row r="5">
@@ -59341,28 +59341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2082.456117981262</v>
+        <v>2169.879996149383</v>
       </c>
       <c r="AB5" t="n">
-        <v>2849.308332101923</v>
+        <v>2968.925539080848</v>
       </c>
       <c r="AC5" t="n">
-        <v>2577.374343915476</v>
+        <v>2685.575452544136</v>
       </c>
       <c r="AD5" t="n">
-        <v>2082456.117981262</v>
+        <v>2169879.996149383</v>
       </c>
       <c r="AE5" t="n">
-        <v>2849308.332101923</v>
+        <v>2968925.539080848</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.231053363021219e-06</v>
+        <v>2.19918699287968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.73888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2577374.343915476</v>
+        <v>2685575.452544136</v>
       </c>
     </row>
     <row r="6">
@@ -59447,28 +59447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1971.178441378445</v>
+        <v>2058.431727345974</v>
       </c>
       <c r="AB6" t="n">
-        <v>2697.053305749334</v>
+        <v>2816.43710095341</v>
       </c>
       <c r="AC6" t="n">
-        <v>2439.650323586705</v>
+        <v>2547.640296932715</v>
       </c>
       <c r="AD6" t="n">
-        <v>1971178.441378445</v>
+        <v>2058431.727345974</v>
       </c>
       <c r="AE6" t="n">
-        <v>2697053.305749333</v>
+        <v>2816437.10095341</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.267057350266667e-06</v>
+        <v>2.26350548858459e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.23333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2439650.323586705</v>
+        <v>2547640.296932715</v>
       </c>
     </row>
     <row r="7">
@@ -59553,28 +59553,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1882.813648192061</v>
+        <v>1970.152185505611</v>
       </c>
       <c r="AB7" t="n">
-        <v>2576.148697332182</v>
+        <v>2695.649137188908</v>
       </c>
       <c r="AC7" t="n">
-        <v>2330.284681306203</v>
+        <v>2438.380166902924</v>
       </c>
       <c r="AD7" t="n">
-        <v>1882813.648192061</v>
+        <v>1970152.185505611</v>
       </c>
       <c r="AE7" t="n">
-        <v>2576148.697332182</v>
+        <v>2695649.137188908</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.291741306587782e-06</v>
+        <v>2.307601575159571e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.90555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>2330284.681306203</v>
+        <v>2438380.166902924</v>
       </c>
     </row>
     <row r="8">
@@ -59659,28 +59659,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1824.974195296608</v>
+        <v>1912.312732610158</v>
       </c>
       <c r="AB8" t="n">
-        <v>2497.010206184051</v>
+        <v>2616.510646040778</v>
       </c>
       <c r="AC8" t="n">
-        <v>2258.69905668168</v>
+        <v>2366.794542278401</v>
       </c>
       <c r="AD8" t="n">
-        <v>1824974.195296608</v>
+        <v>1912312.732610158</v>
       </c>
       <c r="AE8" t="n">
-        <v>2497010.206184051</v>
+        <v>2616510.646040778</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.308564130322555e-06</v>
+        <v>2.337654322060992e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.6875</v>
       </c>
       <c r="AH8" t="n">
-        <v>2258699.05668168</v>
+        <v>2366794.542278401</v>
       </c>
     </row>
     <row r="9">
@@ -59765,28 +59765,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1775.472729563387</v>
+        <v>1862.811266876938</v>
       </c>
       <c r="AB9" t="n">
-        <v>2429.280116917319</v>
+        <v>2548.780556774046</v>
       </c>
       <c r="AC9" t="n">
-        <v>2197.433032074788</v>
+        <v>2305.528517671509</v>
       </c>
       <c r="AD9" t="n">
-        <v>1775472.729563388</v>
+        <v>1862811.266876938</v>
       </c>
       <c r="AE9" t="n">
-        <v>2429280.116917319</v>
+        <v>2548780.556774046</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.322085278371064e-06</v>
+        <v>2.361808866299517e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.51666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2197433.032074788</v>
+        <v>2305528.517671509</v>
       </c>
     </row>
     <row r="10">
@@ -59871,28 +59871,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1731.106823296207</v>
+        <v>1808.731685877406</v>
       </c>
       <c r="AB10" t="n">
-        <v>2368.576726676917</v>
+        <v>2474.786488227755</v>
       </c>
       <c r="AC10" t="n">
-        <v>2142.523088201186</v>
+        <v>2238.596339175949</v>
       </c>
       <c r="AD10" t="n">
-        <v>1731106.823296207</v>
+        <v>1808731.685877406</v>
       </c>
       <c r="AE10" t="n">
-        <v>2368576.726676917</v>
+        <v>2474786.488227755</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.332461973385036e-06</v>
+        <v>2.380346074668619e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.3875</v>
       </c>
       <c r="AH10" t="n">
-        <v>2142523.088201186</v>
+        <v>2238596.339175949</v>
       </c>
     </row>
     <row r="11">
@@ -59977,28 +59977,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1690.42382728395</v>
+        <v>1768.048689865149</v>
       </c>
       <c r="AB11" t="n">
-        <v>2312.912456725834</v>
+        <v>2419.122218276672</v>
       </c>
       <c r="AC11" t="n">
-        <v>2092.17133804894</v>
+        <v>2188.244589023704</v>
       </c>
       <c r="AD11" t="n">
-        <v>1690423.82728395</v>
+        <v>1768048.689865149</v>
       </c>
       <c r="AE11" t="n">
-        <v>2312912.456725834</v>
+        <v>2419122.218276673</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.341423664533466e-06</v>
+        <v>2.396355481896478e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.27916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2092171.338048941</v>
+        <v>2188244.589023704</v>
       </c>
     </row>
     <row r="12">
@@ -60083,28 +60083,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1653.725371353423</v>
+        <v>1731.350233934622</v>
       </c>
       <c r="AB12" t="n">
-        <v>2262.700010300076</v>
+        <v>2368.909771850915</v>
       </c>
       <c r="AC12" t="n">
-        <v>2046.751097036446</v>
+        <v>2142.82434801121</v>
       </c>
       <c r="AD12" t="n">
-        <v>1653725.371353423</v>
+        <v>1731350.233934622</v>
       </c>
       <c r="AE12" t="n">
-        <v>2262700.010300076</v>
+        <v>2368909.771850915</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.348027015905994e-06</v>
+        <v>2.40815188722227e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.2</v>
       </c>
       <c r="AH12" t="n">
-        <v>2046751.097036446</v>
+        <v>2142824.34801121</v>
       </c>
     </row>
     <row r="13">
@@ -60189,28 +60189,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1628.962995480255</v>
+        <v>1706.587858061453</v>
       </c>
       <c r="AB13" t="n">
-        <v>2228.819035191484</v>
+        <v>2335.028796742323</v>
       </c>
       <c r="AC13" t="n">
-        <v>2016.103674639971</v>
+        <v>2112.176925614734</v>
       </c>
       <c r="AD13" t="n">
-        <v>1628962.995480255</v>
+        <v>1706587.858061453</v>
       </c>
       <c r="AE13" t="n">
-        <v>2228819.035191484</v>
+        <v>2335028.796742323</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.352272027502619e-06</v>
+        <v>2.415735290645993e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.14861111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>2016103.674639971</v>
+        <v>2112176.925614734</v>
       </c>
     </row>
     <row r="14">
@@ -60295,28 +60295,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1630.916217045476</v>
+        <v>1708.541079626674</v>
       </c>
       <c r="AB14" t="n">
-        <v>2231.491519107073</v>
+        <v>2337.701280657912</v>
       </c>
       <c r="AC14" t="n">
-        <v>2018.52110044151</v>
+        <v>2114.594351416274</v>
       </c>
       <c r="AD14" t="n">
-        <v>1630916.217045475</v>
+        <v>1708541.079626674</v>
       </c>
       <c r="AE14" t="n">
-        <v>2231491.519107073</v>
+        <v>2337701.280657912</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.353372586064707e-06</v>
+        <v>2.417701358200291e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.13611111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>2018521.10044151</v>
+        <v>2114594.351416274</v>
       </c>
     </row>
   </sheetData>
